--- a/data/datasets/jungle/jungle_ds.xlsx
+++ b/data/datasets/jungle/jungle_ds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python\KYC\src\jungle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D260ABD5-52AC-401E-9BDF-18EB2C72251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82A5B1C-D447-4A86-AB9C-19A5B8D3C5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jungle" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="230">
-  <si>
-    <t xml:space="preserve">Cleafable </t>
-  </si>
-  <si>
-    <t>Normale</t>
-  </si>
-  <si>
-    <t>Metronomo</t>
-  </si>
-  <si>
-    <t>Minimizzazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lotta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="287">
   <si>
     <t>https://wiki.pokemoncentral.it/Clefable_(Jungle_1)#/media/File:ClefableJungle1.jpg</t>
   </si>
@@ -43,48 +28,24 @@
     <t>Electrode</t>
   </si>
   <si>
-    <t>Elettro</t>
-  </si>
-  <si>
-    <t>Azione</t>
-  </si>
-  <si>
-    <t>Saetta</t>
-  </si>
-  <si>
     <t>Lotta</t>
   </si>
   <si>
     <t>https://wiki.pokemoncentral.it/Electrode_(Jungle_2)#/media/File:ElectrodeJungle2.jpg</t>
   </si>
   <si>
-    <t>Flaereon</t>
-  </si>
-  <si>
-    <t>Fuoco</t>
-  </si>
-  <si>
-    <t>Attacco Rapido</t>
-  </si>
-  <si>
     <t>10+</t>
   </si>
   <si>
     <t>Lanciafiamme</t>
   </si>
   <si>
-    <t>Acqua</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Flareon_(Jungle_3)#/media/File:FlareonJungle3.jpg</t>
   </si>
   <si>
     <t>Jolteon</t>
   </si>
   <si>
-    <t>Missilspillo</t>
-  </si>
-  <si>
     <t>20x</t>
   </si>
   <si>
@@ -97,90 +58,45 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Stratagemma</t>
-  </si>
-  <si>
-    <t>Cometa Pugno</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Kangaskhan_(Jungle_5)#/media/File:KangaskhanJungle5.jpg</t>
   </si>
   <si>
     <t>Mr. Mime</t>
   </si>
   <si>
-    <t>Psico</t>
-  </si>
-  <si>
-    <t>Muro Invisibile</t>
-  </si>
-  <si>
-    <t>Meditazione</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Mr._Mime_(Jungle_6)#/media/File:MrMimeJungle6.jpg</t>
   </si>
   <si>
     <t>Nidoqueen</t>
   </si>
   <si>
-    <t>Erba</t>
-  </si>
-  <si>
-    <t>Amorino</t>
-  </si>
-  <si>
     <t>20+</t>
   </si>
   <si>
-    <t>Mega Pugno</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Nidoqueen_(Jungle_7)#/media/File:NidoqueenJungle7.jpg</t>
   </si>
   <si>
     <t>Pidgeot</t>
   </si>
   <si>
-    <t>Attacco d'Ala</t>
-  </si>
-  <si>
-    <t>Uragano</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Pidgeot_(Jungle_8)#/media/File:PidgeotJungle8.jpg</t>
   </si>
   <si>
     <t>Pinsir</t>
   </si>
   <si>
-    <t>Presa di Ferro</t>
-  </si>
-  <si>
-    <t>Ghigliottina</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Pinsir_(Jungle_9)#/media/File:PinsirJungle9.jpg</t>
   </si>
   <si>
     <t>Scyther</t>
   </si>
   <si>
-    <t>Danza delle Spade</t>
-  </si>
-  <si>
-    <t>Lacerazione</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Scyther_(Jungle_10)#/media/File:ScytherJungle10.jpg</t>
   </si>
   <si>
     <t>Snorlax</t>
   </si>
   <si>
-    <t>Pellaccia</t>
-  </si>
-  <si>
     <t>Body Slam</t>
   </si>
   <si>
@@ -190,9 +106,6 @@
     <t>Vaporeon</t>
   </si>
   <si>
-    <t>Pistola ad Acqua</t>
-  </si>
-  <si>
     <t>30+</t>
   </si>
   <si>
@@ -202,36 +115,18 @@
     <t>Venomoth</t>
   </si>
   <si>
-    <t>Scambia</t>
-  </si>
-  <si>
-    <t>Polvere Velenosa</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Venomoth_(Jungle_13)#/media/File:VenomothJungle13.jpg</t>
   </si>
   <si>
     <t>Victreebel</t>
   </si>
   <si>
-    <t>Attrazione Letale</t>
-  </si>
-  <si>
-    <t>Secrezione Collosa</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Victreebel_(Jungle_14)#/media/File:VictreebelJungle14.jpg</t>
   </si>
   <si>
     <t>Vileplume</t>
   </si>
   <si>
-    <t>Cura</t>
-  </si>
-  <si>
-    <t>Petalodanza</t>
-  </si>
-  <si>
     <t>40x</t>
   </si>
   <si>
@@ -241,114 +136,57 @@
     <t>Wigglytuff</t>
   </si>
   <si>
-    <t>Ninna Nanna</t>
-  </si>
-  <si>
-    <t>Fare la Ola</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Wigglytuff_(Jungle_16)#/media/File:WigglytuffJungle16.jpg</t>
   </si>
   <si>
-    <t>Rara</t>
-  </si>
-  <si>
     <t>Butterfree</t>
   </si>
   <si>
-    <t>Non Comune</t>
-  </si>
-  <si>
-    <t>Turbine</t>
-  </si>
-  <si>
-    <t>Megassorbimento</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Butterfree_(Jungle_33)#/media/File:ButterfreeJungle33.jpg</t>
   </si>
   <si>
     <t>Dodrio</t>
   </si>
   <si>
-    <t>Assistente alla Ritirata</t>
-  </si>
-  <si>
-    <t>Ira</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Dodrio_(Jungle_34)#/media/File:DodrioJungle34.jpg</t>
   </si>
   <si>
     <t>Exeggutor</t>
   </si>
   <si>
-    <t>Teletrasporto</t>
-  </si>
-  <si>
-    <t>Grande Ovosplosione</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Exeggutor_(Jungle_35)#/media/File:ExeggutorJungle35.jpg</t>
   </si>
   <si>
     <t>Fearow</t>
   </si>
   <si>
-    <t>Agilità</t>
-  </si>
-  <si>
-    <t>Perforbecco</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Fearow_(Jungle_36)#/media/File:FearowJungle36.jpg</t>
   </si>
   <si>
     <t>Gloom</t>
   </si>
   <si>
-    <t>Velenpolvere</t>
-  </si>
-  <si>
-    <t>Puzza</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Gloom_(Jungle_37)#/media/File:GloomJungle37.jpg</t>
   </si>
   <si>
     <t>Lickitung</t>
   </si>
   <si>
-    <t>Lingua Avvolgente</t>
-  </si>
-  <si>
-    <t>Supersonico</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Lickitung_(Jungle_38)#/media/File:LickitungJungle38.jpg</t>
   </si>
   <si>
     <t>Marowak</t>
   </si>
   <si>
-    <t>Ossomerang</t>
-  </si>
-  <si>
     <t>30x</t>
   </si>
   <si>
-    <t>Cerca Amici</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Marowak_(Jungle_39)#/media/File:MarowakJungle39.jpg</t>
   </si>
   <si>
     <t>Nidorina</t>
   </si>
   <si>
-    <t>Doppiocalcio</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Nidorina_(Jungle_40)#/media/File:NidorinaJungle40.jpg</t>
   </si>
   <si>
@@ -364,72 +202,42 @@
     <t>Persian</t>
   </si>
   <si>
-    <t>Graffio</t>
-  </si>
-  <si>
-    <t>Balzo</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Persian_(Jungle_42)#/media/File:PersianJungle42.jpg</t>
   </si>
   <si>
     <t>Primeape</t>
   </si>
   <si>
-    <t>Sfuriate</t>
-  </si>
-  <si>
-    <t>Collera</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Primeape_(Jungle_43)#/media/File:PrimeapeJungle43.jpg</t>
   </si>
   <si>
     <t>Rapidash</t>
   </si>
   <si>
-    <t>Pestone</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Rapidash_(Jungle_44)#/media/File:RapidashJungle44.jpg</t>
   </si>
   <si>
     <t>Rhydon</t>
   </si>
   <si>
-    <t>Incornata</t>
-  </si>
-  <si>
-    <t>Cozzare</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Rhydon_(Jungle_45)#/media/File:RhydonJungle45.jpg</t>
   </si>
   <si>
     <t>Seaking</t>
   </si>
   <si>
-    <t>Cascata</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Seaking_(Jungle_46)#/media/File:SeakingJungle46.jpg</t>
   </si>
   <si>
     <t>Tauros</t>
   </si>
   <si>
-    <t>Infuriato</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Tauros_(Jungle_47)#/media/File:TaurosJungle47.jpg</t>
   </si>
   <si>
     <t>Weepinbell</t>
   </si>
   <si>
-    <t>Foglielama</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Weepinbell_(Jungle_48)#/media/File:WeepinbellJungle48.jpg</t>
   </si>
   <si>
@@ -484,33 +292,18 @@
     <t>Bellsprout</t>
   </si>
   <si>
-    <t>Comune</t>
-  </si>
-  <si>
-    <t>Frustata</t>
-  </si>
-  <si>
-    <t>Cerca Famiglia</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/c/cf/BellsproutJungle49.jpg</t>
   </si>
   <si>
     <t>Cubone</t>
   </si>
   <si>
-    <t>Piagnisteo</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/a/a6/CuboneJungle50.jpg</t>
   </si>
   <si>
     <t>Eevee</t>
   </si>
   <si>
-    <t>Codata</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/b/bf/EeveeJungle.jpg</t>
   </si>
   <si>
@@ -535,27 +328,18 @@
     <t>Jigglypuff</t>
   </si>
   <si>
-    <t>Libbra</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/0/07/JigglypuffJungle54.jpg</t>
   </si>
   <si>
     <t>Mankey</t>
   </si>
   <si>
-    <t>Occhiata</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/a/a8/MankeyJungle55.jpg</t>
   </si>
   <si>
     <t>Meowth</t>
   </si>
   <si>
-    <t>Giorno di Paga</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/f/fb/MeowthJungle56.jpg</t>
   </si>
   <si>
@@ -571,12 +355,6 @@
     <t>Oddish</t>
   </si>
   <si>
-    <t>Spore Parallizzanti</t>
-  </si>
-  <si>
-    <t>Germoglio</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/f/fd/OddishJungle58.jpg</t>
   </si>
   <si>
@@ -589,18 +367,12 @@
     <t>Pikachu</t>
   </si>
   <si>
-    <t>Scintilla</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/6/6f/PikachuJungle60.png</t>
   </si>
   <si>
     <t>Rhyhorn</t>
   </si>
   <si>
-    <t>Fulmisguardo</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/0/06/RhyhornJungle61.jpg</t>
   </si>
   <si>
@@ -610,42 +382,15 @@
     <t xml:space="preserve">Base </t>
   </si>
   <si>
-    <t>Beccata</t>
-  </si>
-  <si>
-    <t>Speculmossa</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/9/90/SpearowJungle62.jpg</t>
   </si>
   <si>
     <t>Venonat</t>
   </si>
   <si>
-    <t>Sanguisuga</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/4/4c/VenonatJungle63.jpg</t>
   </si>
   <si>
-    <t>2 Erba</t>
-  </si>
-  <si>
-    <t>1 Erba</t>
-  </si>
-  <si>
-    <t>3 Erba</t>
-  </si>
-  <si>
-    <t>4 Erba</t>
-  </si>
-  <si>
-    <t>Psico - 30</t>
-  </si>
-  <si>
-    <t>1 Psico</t>
-  </si>
-  <si>
     <t>Lotta - 30</t>
   </si>
   <si>
@@ -655,68 +400,837 @@
     <t>4 Lotta</t>
   </si>
   <si>
-    <t>2 Qls</t>
-  </si>
-  <si>
-    <t>1 Qls</t>
-  </si>
-  <si>
-    <t>3 Qls</t>
-  </si>
-  <si>
-    <t>1 Lotta 2 Qls</t>
-  </si>
-  <si>
-    <t>1 Erba 1 Qls</t>
-  </si>
-  <si>
-    <t>3 Elettro</t>
-  </si>
-  <si>
-    <t>Elettro - 30</t>
-  </si>
-  <si>
-    <t>2 Elettro</t>
-  </si>
-  <si>
-    <t>1 Acqua</t>
-  </si>
-  <si>
-    <t>Rara olografica</t>
-  </si>
-  <si>
-    <t>2 Qls 2 Fuoco</t>
-  </si>
-  <si>
-    <t>2 Elettro 1 Qls</t>
-  </si>
-  <si>
-    <t>4 Qls</t>
-  </si>
-  <si>
-    <t>2 Erba 2 Qls</t>
-  </si>
-  <si>
-    <t>2 Acqua 1 Qls</t>
-  </si>
-  <si>
-    <t>2 Lotta 1 Qls</t>
-  </si>
-  <si>
-    <t>1 Erba 2 Qls</t>
-  </si>
-  <si>
-    <t>2 Fuoco 1 Qls</t>
-  </si>
-  <si>
-    <t>1 Acqua 1 Qls</t>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>3 Electric</t>
+  </si>
+  <si>
+    <t>Electric - 30</t>
+  </si>
+  <si>
+    <t>2 Electric</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>1 Water</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>2 Grass</t>
+  </si>
+  <si>
+    <t>1 Grass</t>
+  </si>
+  <si>
+    <t>3 Grass</t>
+  </si>
+  <si>
+    <t>4 Grass</t>
+  </si>
+  <si>
+    <t>Psychic - 30</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>1 Psychic</t>
+  </si>
+  <si>
+    <t>1 ANY</t>
+  </si>
+  <si>
+    <t>2 ANY</t>
+  </si>
+  <si>
+    <t>2 ANY 2 Fire</t>
+  </si>
+  <si>
+    <t>2 Electric 1 ANY</t>
+  </si>
+  <si>
+    <t>4 ANY</t>
+  </si>
+  <si>
+    <t>3 ANY</t>
+  </si>
+  <si>
+    <t>1 Grass 1 ANY</t>
+  </si>
+  <si>
+    <t>2 Grass 2 ANY</t>
+  </si>
+  <si>
+    <t>2 Water 1 ANY</t>
+  </si>
+  <si>
+    <t>2 Lotta 1 ANY</t>
+  </si>
+  <si>
+    <t>1 Grass 2 ANY</t>
+  </si>
+  <si>
+    <t>2 Fire 1 ANY</t>
+  </si>
+  <si>
+    <t>1 Lotta 2 ANY</t>
+  </si>
+  <si>
+    <t>1 Water 1 ANY</t>
+  </si>
+  <si>
+    <t>Holo Rare</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clefable </t>
+  </si>
+  <si>
+    <t>Flareon</t>
+  </si>
+  <si>
+    <t>Metronome</t>
+  </si>
+  <si>
+    <t>Minimize</t>
+  </si>
+  <si>
+    <t>Effetto Abilità</t>
+  </si>
+  <si>
+    <t>Effetto Mossa1</t>
+  </si>
+  <si>
+    <t>Effetto Mossa2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Choose 1 of the Defending Pokémon's attacks. Metronome copies that attack except for its Energy costs and anything else required in order to use that attack, such as discarding Energy cards. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(No matter what type the Defending Pokémon is, Clefable's type is still Colorless.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All damage done by attacks to Clefable during your opponent's next turn is reduced by 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(after applying Weakness and Resistance)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tackle</t>
+  </si>
+  <si>
+    <t>Chain Lightining</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the Defending Pokémon isn't Colorless, this attack does 10 damage to each Benched Pokémon of the same type as the Defending Pokémon </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(including your own)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Quick Attack</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, this attack does 10 damage plus 20 more damage; if tails, this attack does 10 damage.</t>
+  </si>
+  <si>
+    <t>Discard 1 Fire Energy card attached to Flareon in order to use this attack.</t>
+  </si>
+  <si>
+    <t>Flip 4 coins. This attack does 20 damage times the number of heads.</t>
+  </si>
+  <si>
+    <t>Pin Missile</t>
+  </si>
+  <si>
+    <t>Fetch</t>
+  </si>
+  <si>
+    <t>Draw a card.</t>
+  </si>
+  <si>
+    <t>Comet Punch</t>
+  </si>
+  <si>
+    <t>Invisible Wall</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever an attack </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(including your own)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does 30 or more damage to Mr. Mime </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(after applying Weakness and Resistance)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, prevent that damage. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Any other effects of attacks still happen.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This power can't be used if Mr. Mime is Asleep, Confused, or Paralyzed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Meditate</t>
+  </si>
+  <si>
+    <t>Does 10 damage plus 10 more damage for each damage counter on the Defending Pokémon.</t>
+  </si>
+  <si>
+    <t>Boyfriends</t>
+  </si>
+  <si>
+    <t>Does 20 damage plus 20 more damage for each Nidoking you have in play.</t>
+  </si>
+  <si>
+    <t>Mega Punch</t>
+  </si>
+  <si>
+    <t>Wing Attack</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Unless this attack Knocks Out the Defending Pokémon, return the Defending Pokémon and all cards attached to it to your opponent's hand.</t>
+  </si>
+  <si>
+    <t>Irongrip</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, the Defending Pokémon is now Paralyzed.</t>
+  </si>
+  <si>
+    <t>Guillottine</t>
+  </si>
+  <si>
+    <t>Swords Dance</t>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>During your next turn, Scyther's Slash attack's base damage is 60 instead of 30.</t>
+  </si>
+  <si>
+    <t>Snorlax can't become Asleep, Confused, Paralyzed, or Poisoned. This power can't be used if Snorlax is already Asleep, Confused, or Paralyzed.</t>
+  </si>
+  <si>
+    <t>Thick Skinned</t>
+  </si>
+  <si>
+    <t>Water Gun</t>
+  </si>
+  <si>
+    <t>Does 30 damage plus 10 more damage for each Water Energy attached to Vaporeon but not used to pay for this attack's Energy cost. Extra Water Energy after the 2nd doesn't count.</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once during your turn </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(before your attack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, you may change the type of Venomoth to the type of any other Pokémon in play other than Colorless. This power can't be used if Venomoth is Asleep, Confused, or Paralyzed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Venom Powder</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, the Defending Pokémon is now Confused and Poisoned.</t>
+  </si>
+  <si>
+    <t>Lure</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>If your opponent has any Benched Pokémon, choose 1 of them and switch it with his or her Active Pokémon.</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, the Defending Pokémon can't retreat during your opponent's next turn.</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once during your turn </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(before your attack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, you may flip a coin. If heads, remove 1 damage counter from 1 of your Pokémon. This power can't be used if Vileplume is Asleep, Confused, or Paralyzed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Petal Dance</t>
+  </si>
+  <si>
+    <t>Flip 3 coins. This attack does 40 damage times the number of heads. Vileplume is now Confused (after doing damage).</t>
+  </si>
+  <si>
+    <t>Lullaby</t>
+  </si>
+  <si>
+    <t>The Defending Pokémon is now Asleep.</t>
+  </si>
+  <si>
+    <t>Does 10 damage plus 10 more damage for each of your Benched Pokémon.</t>
+  </si>
+  <si>
+    <t>Do the Wave</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If your opponent has any Benched Pokémon, he or she chooses 1 of them and switches it with the Defending Pokémon. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Do the damage before switching the Pokémon.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove a number of damage counters from Butterfree equal to half the damage done to the Defending Pokémon </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(after applying Weakness and Resistance)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (rounded up to the nearest 10).</t>
+    </r>
+  </si>
+  <si>
+    <t>Mega Drain</t>
+  </si>
+  <si>
+    <t>Retreat Aid</t>
+  </si>
+  <si>
+    <t>As long as Dodrio is Benched, pay 1 less  Energy to retreat your Active Pokémon.</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>Does 10 damage plus 10 more damage for each damage counter on Dodrio.</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Big Eggsplosion</t>
+  </si>
+  <si>
+    <t>Switch Exeggutor with 1 of your Benched Pokémon.</t>
+  </si>
+  <si>
+    <t>Flip a number of coins equal to the number of Energy attached to Exeggutor. This attack does 20 damage times the number of heads.</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, during your opponent's next turn, prevent all effects of attacks, including damage, done to Fearow.</t>
+  </si>
+  <si>
+    <t>Drill Peck</t>
+  </si>
+  <si>
+    <t>Poisonpowder</t>
+  </si>
+  <si>
+    <t>The Defending Pokémon is now Poisoned.</t>
+  </si>
+  <si>
+    <t>Both the Defending Pokémon and Gloom are now Confused (after doing damage).</t>
+  </si>
+  <si>
+    <t>Foul Odor</t>
+  </si>
+  <si>
+    <t>Toungue Wrap</t>
+  </si>
+  <si>
+    <t>Supersonic</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, the Defending Pokémon is now Confused.</t>
+  </si>
+  <si>
+    <t>Bonemerang</t>
+  </si>
+  <si>
+    <t>Call for Friend</t>
+  </si>
+  <si>
+    <t>Flip 2 coins. This attack does 30 damage times the number of heads.</t>
+  </si>
+  <si>
+    <t>Search your deck for a Fighting Basic Pokémon card and put it onto your Bench. Shuffle your deck afterward. (You can't use this attack if your Bench is full.)</t>
+  </si>
+  <si>
+    <t>Double Kick</t>
+  </si>
+  <si>
+    <t>Scratch</t>
+  </si>
+  <si>
+    <t>Pounce</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the Defending Pokémon attacks Persian during your opponent's next turn, any damage done by the attack is reduced by 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(after applying Weakness and Resistance).(Benching either Pokémon ends this effect.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fury Swipes</t>
+  </si>
+  <si>
+    <t>Flip 3 coins. This attack does 20 damage times the number of heads.</t>
+  </si>
+  <si>
+    <t>Flip a coin. If tails, Primeape is now Confused (after doing damage).</t>
+  </si>
+  <si>
+    <t>Tantrum</t>
+  </si>
+  <si>
+    <t>Stomp</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, this attack does 20 damage plus 10 more damage; if tails, this attack does 20 damage.</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, during your opponent's next turn, prevent all effects of attacks, including damage, done to Rapidash.</t>
+  </si>
+  <si>
+    <t>Horn Attack</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rhydon does 20 damage to itself. If your opponent has any Benched Pokémon, he or she chooses 1 of them and switches it with the Defending Pokémon. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Do the damage before switching the Pokémon. Switch the Pokémon even if Rhydon is knocked out.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>Rampage</t>
+  </si>
+  <si>
+    <t>Does 20 damage plus 10 more damage for each damage counter on Tauros. Flip a coin. If tails, Tauros is now Confused (after doing damage).</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, the Defending Pokémon is now Poisoned.</t>
+  </si>
+  <si>
+    <t>Razor Leaf</t>
+  </si>
+  <si>
+    <t>Vine Wip</t>
+  </si>
+  <si>
+    <t>Call for Family</t>
+  </si>
+  <si>
+    <t>Search your deck for a Basic Pokémon named Bellsprout and put it onto your Bench. Shuffle your deck afterward. (You can't use this attack if your Bench is full.)</t>
+  </si>
+  <si>
+    <t>Snivel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the Defending Pokémon attacks Cubone during your opponent's next turn, any damage done by the attack is reduced by 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(after applying Weakness and Resistance). (Benching either Pokémon ends this effect.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Does 10 damage plus 10 more damage for each damage counter on Cubone.</t>
+  </si>
+  <si>
+    <t>Tail Wag</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flip a coin. If heads, the Defending Pokémon can't attack Eevee during your opponent's next turn. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Benching either Pokémon ends this effect.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once during your turn </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(before your attack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, you may look at one of the following: the top card of either player's deck, a random card from your opponent's hand, or one of either player's Prizes. This power can't be used if Mankey is Asleep, Confused, or Paralyzed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Peek</t>
+  </si>
+  <si>
+    <t>Pay Day</t>
+  </si>
+  <si>
+    <t>Flip a coin. If heads, draw a card.</t>
+  </si>
+  <si>
+    <t>Flip 3 coins. This attack does 10 damage times the number of heads.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search your deck for a Basic Pokémon named Nidoran♂ or Nidoran♀ and put it onto your Bench. Shuffle your deck afterward. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(You can't use this attack if your Bench is full.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Stun Spore</t>
+  </si>
+  <si>
+    <t>Sprout</t>
+  </si>
+  <si>
+    <t>Search your deck for a Basic Pokémon named Oddish and put it onto your Bench. Shuffle your deck afterward. (You can't use this attack if your Bench is full.)</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If your opponent has any Benched Pokémon, choose 1 of them and this attack does 10 damage to it. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Don't apply Weakness and Resistance for Benched Pokémon.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Leer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flip a coin. If heads, the Defending Pokémon can't attack Rhyhorn during your opponent's next turn. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Benching either Pokémon ends this effect.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Peck</t>
+  </si>
+  <si>
+    <t>Mirror Move</t>
+  </si>
+  <si>
+    <t>Leech Life</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove a number of damage counters from Venonat equal to the damage done to the Defending Pokémon </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(after applying Weakness and Resistance)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -855,6 +1369,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1207,49 +1729,49 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="42" builtinId="8"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,7 +1787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1561,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1575,77 +2097,89 @@
     <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="79.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="P1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1653,40 +2187,46 @@
       <c r="E2">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1694,43 +2234,46 @@
       <c r="E3">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>211</v>
-      </c>
       <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
+        <v>143</v>
+      </c>
+      <c r="L3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>216</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
+      <c r="N3" t="s">
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1738,43 +2281,49 @@
       <c r="E4">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
+        <v>143</v>
+      </c>
+      <c r="K4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
+      <c r="N4" t="s">
+        <v>144</v>
       </c>
       <c r="O4" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="P4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="R4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1782,125 +2331,143 @@
       <c r="E5">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="I5" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="L5" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="O5" t="s">
-        <v>212</v>
-      </c>
-      <c r="P5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>212</v>
-      </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="O6" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1908,43 +2475,46 @@
       <c r="E8">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8">
         <v>50</v>
       </c>
-      <c r="L8" t="s">
-        <v>224</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>213</v>
+      <c r="N8" t="s">
+        <v>149</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="R8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1952,169 +2522,184 @@
       <c r="E9">
         <v>80</v>
       </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
-        <v>211</v>
-      </c>
       <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
+        <v>143</v>
+      </c>
+      <c r="L9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
       <c r="N9" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="O9" t="s">
+        <v>189</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10">
         <v>20</v>
       </c>
-      <c r="I10" t="s">
-        <v>202</v>
-      </c>
       <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10">
         <v>50</v>
       </c>
-      <c r="L10" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="s">
-        <v>212</v>
+      <c r="N10" t="s">
+        <v>149</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R10" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>203</v>
+      <c r="H11" t="s">
+        <v>193</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11">
         <v>30</v>
       </c>
-      <c r="L11" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
       <c r="N11" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12">
+        <v>196</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
-        <v>223</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O12" t="s">
-        <v>213</v>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>191</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2122,43 +2707,49 @@
       <c r="E13">
         <v>80</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="L13" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="M13" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="R13" t="s">
+        <v>142</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2167,36 +2758,42 @@
         <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14">
+        <v>201</v>
+      </c>
+      <c r="H14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
-        <v>202</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>208</v>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>203</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2204,40 +2801,46 @@
       <c r="E15">
         <v>80</v>
       </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" t="s">
-        <v>203</v>
+      <c r="H15" t="s">
+        <v>204</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15">
         <v>20</v>
       </c>
-      <c r="L15" t="s">
-        <v>202</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
+      <c r="N15" t="s">
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R15" t="s">
+        <v>143</v>
+      </c>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2246,36 +2849,42 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="I16" t="s">
-        <v>204</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
         <v>211</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2283,43 +2892,49 @@
       <c r="E17">
         <v>80</v>
       </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>212</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="L17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>139</v>
+      </c>
+      <c r="R17" t="s">
+        <v>143</v>
+      </c>
+      <c r="S17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2327,40 +2942,46 @@
       <c r="E18">
         <v>70</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>168</v>
+      </c>
+      <c r="P18" t="s">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
-        <v>212</v>
-      </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" t="s">
-        <v>211</v>
-      </c>
-      <c r="M18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>206</v>
-      </c>
-      <c r="O18" t="s">
-        <v>211</v>
-      </c>
-      <c r="P18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>139</v>
+      </c>
+      <c r="R18" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2368,43 +2989,46 @@
       <c r="E19">
         <v>90</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
-        <v>211</v>
-      </c>
       <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19">
+        <v>143</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19">
         <v>20</v>
       </c>
-      <c r="L19" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
+      <c r="N19" t="s">
+        <v>128</v>
       </c>
       <c r="O19" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2412,43 +3036,49 @@
       <c r="E20">
         <v>70</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20">
         <v>60</v>
       </c>
-      <c r="L20" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" t="s">
-        <v>17</v>
+      <c r="N20" t="s">
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="P20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="R20" t="s">
+        <v>142</v>
+      </c>
+      <c r="S20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2456,125 +3086,143 @@
       <c r="E21">
         <v>70</v>
       </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="O21" t="s">
-        <v>212</v>
-      </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>90</v>
       </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22">
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>212</v>
-      </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>139</v>
+      </c>
+      <c r="R22" t="s">
+        <v>147</v>
+      </c>
+      <c r="S22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" t="s">
+        <v>140</v>
+      </c>
+      <c r="R23" t="s">
+        <v>142</v>
+      </c>
+      <c r="S23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" t="s">
-        <v>212</v>
-      </c>
-      <c r="P23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2582,43 +3230,46 @@
       <c r="E24">
         <v>90</v>
       </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24">
+        <v>148</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24">
         <v>50</v>
       </c>
-      <c r="L24" t="s">
-        <v>224</v>
-      </c>
-      <c r="M24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" t="s">
-        <v>213</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" t="s">
+        <v>140</v>
+      </c>
+      <c r="R24" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2626,169 +3277,184 @@
       <c r="E25">
         <v>80</v>
       </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25">
         <v>20</v>
       </c>
-      <c r="I25" t="s">
-        <v>211</v>
-      </c>
       <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25">
+        <v>143</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25">
         <v>30</v>
       </c>
-      <c r="L25" t="s">
-        <v>213</v>
-      </c>
-      <c r="M25" t="s">
-        <v>7</v>
-      </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="O25" t="s">
+        <v>189</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>60</v>
       </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26">
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26">
         <v>20</v>
       </c>
-      <c r="I26" t="s">
-        <v>202</v>
-      </c>
       <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
+        <v>135</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26">
         <v>50</v>
       </c>
-      <c r="L26" t="s">
-        <v>224</v>
-      </c>
-      <c r="M26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" t="s">
-        <v>212</v>
+      <c r="N26" t="s">
+        <v>149</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R26" t="s">
+        <v>142</v>
+      </c>
+      <c r="S26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>70</v>
       </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" t="s">
-        <v>203</v>
+      <c r="H27" t="s">
+        <v>193</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
+        <v>136</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27">
         <v>30</v>
       </c>
-      <c r="L27" t="s">
-        <v>213</v>
-      </c>
-      <c r="M27" t="s">
-        <v>13</v>
-      </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28">
+        <v>196</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28">
         <v>30</v>
       </c>
-      <c r="I28" t="s">
-        <v>223</v>
-      </c>
-      <c r="M28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" t="s">
-        <v>206</v>
-      </c>
-      <c r="O28" t="s">
-        <v>213</v>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>139</v>
+      </c>
+      <c r="R28" t="s">
+        <v>147</v>
+      </c>
+      <c r="S28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2796,43 +3462,49 @@
       <c r="E29">
         <v>80</v>
       </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="M29" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>150</v>
       </c>
       <c r="O29" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="R29" t="s">
+        <v>142</v>
+      </c>
+      <c r="S29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2841,36 +3513,42 @@
         <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30">
+        <v>201</v>
+      </c>
+      <c r="H30" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30">
         <v>10</v>
       </c>
-      <c r="I30" t="s">
-        <v>202</v>
-      </c>
-      <c r="M30" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" t="s">
-        <v>208</v>
+      <c r="J30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
       </c>
       <c r="P30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2878,40 +3556,46 @@
       <c r="E31">
         <v>80</v>
       </c>
-      <c r="G31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" t="s">
-        <v>203</v>
+      <c r="H31" t="s">
+        <v>204</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
+        <v>136</v>
+      </c>
+      <c r="K31" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31">
         <v>20</v>
       </c>
-      <c r="L31" t="s">
-        <v>202</v>
-      </c>
-      <c r="M31" t="s">
-        <v>13</v>
+      <c r="N31" t="s">
+        <v>135</v>
       </c>
       <c r="O31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R31" t="s">
+        <v>143</v>
+      </c>
+      <c r="S31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2920,36 +3604,42 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
-      </c>
-      <c r="M32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" t="s">
         <v>211</v>
       </c>
       <c r="P32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R32" t="s">
+        <v>143</v>
+      </c>
+      <c r="S32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2957,43 +3647,49 @@
       <c r="E33">
         <v>80</v>
       </c>
-      <c r="G33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>212</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="O33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>139</v>
+      </c>
+      <c r="R33" t="s">
+        <v>143</v>
+      </c>
+      <c r="S33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3001,43 +3697,49 @@
       <c r="E34">
         <v>70</v>
       </c>
-      <c r="G34" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34">
+      <c r="H34" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34">
         <v>20</v>
       </c>
-      <c r="I34" t="s">
-        <v>211</v>
-      </c>
       <c r="J34" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34">
+        <v>143</v>
+      </c>
+      <c r="K34" t="s">
+        <v>217</v>
+      </c>
+      <c r="L34" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34">
         <v>40</v>
       </c>
-      <c r="L34" t="s">
-        <v>205</v>
-      </c>
-      <c r="M34" t="s">
-        <v>13</v>
-      </c>
       <c r="N34" t="s">
-        <v>208</v>
+        <v>138</v>
+      </c>
+      <c r="O34" t="s">
+        <v>218</v>
       </c>
       <c r="P34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>123</v>
+      </c>
+      <c r="S34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3046,36 +3748,42 @@
         <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="I35" t="s">
-        <v>213</v>
-      </c>
-      <c r="M35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N35" t="s">
-        <v>208</v>
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" t="s">
+        <v>223</v>
       </c>
       <c r="P35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>123</v>
+      </c>
+      <c r="S35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3083,40 +3791,46 @@
       <c r="E36">
         <v>80</v>
       </c>
-      <c r="G36" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" t="s">
-        <v>207</v>
+      <c r="H36" t="s">
+        <v>224</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>142</v>
       </c>
       <c r="O36" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="P36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R36" t="s">
+        <v>147</v>
+      </c>
+      <c r="S36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3124,43 +3838,46 @@
       <c r="E37">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37">
+      <c r="H37" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37">
         <v>20</v>
       </c>
-      <c r="I37" t="s">
-        <v>213</v>
-      </c>
       <c r="J37" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37">
+        <v>147</v>
+      </c>
+      <c r="K37" t="s">
+        <v>229</v>
+      </c>
+      <c r="L37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37">
         <v>40</v>
       </c>
-      <c r="L37" t="s">
-        <v>223</v>
-      </c>
-      <c r="M37" t="s">
-        <v>7</v>
-      </c>
       <c r="N37" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="P37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3168,84 +3885,96 @@
       <c r="E38">
         <v>60</v>
       </c>
-      <c r="G38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" t="s">
-        <v>203</v>
+      <c r="H38" t="s">
+        <v>231</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
-      </c>
-      <c r="K38">
+        <v>136</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s">
+        <v>234</v>
+      </c>
+      <c r="M38">
         <v>20</v>
       </c>
-      <c r="L38" t="s">
-        <v>202</v>
-      </c>
-      <c r="M38" t="s">
-        <v>13</v>
+      <c r="N38" t="s">
+        <v>135</v>
       </c>
       <c r="O38" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="P38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R38" t="s">
+        <v>142</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>90</v>
       </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39">
+      <c r="H39" t="s">
+        <v>235</v>
+      </c>
+      <c r="I39">
         <v>10</v>
       </c>
-      <c r="I39" t="s">
-        <v>212</v>
-      </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>142</v>
+      </c>
+      <c r="K39" t="s">
+        <v>191</v>
       </c>
       <c r="L39" t="s">
-        <v>211</v>
-      </c>
-      <c r="M39" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="N39" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="O39" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="P39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>139</v>
+      </c>
+      <c r="R39" t="s">
+        <v>147</v>
+      </c>
+      <c r="S39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3253,43 +3982,49 @@
       <c r="E40">
         <v>60</v>
       </c>
-      <c r="G40" t="s">
-        <v>103</v>
-      </c>
       <c r="H40" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>124</v>
+      </c>
+      <c r="K40" t="s">
+        <v>240</v>
       </c>
       <c r="L40" t="s">
-        <v>226</v>
-      </c>
-      <c r="M40" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="N40" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="O40" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="P40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>129</v>
+      </c>
+      <c r="R40" t="s">
+        <v>142</v>
+      </c>
+      <c r="S40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3297,40 +4032,46 @@
       <c r="E41">
         <v>70</v>
       </c>
-      <c r="G41" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" t="s">
-        <v>203</v>
+      <c r="H41" t="s">
+        <v>236</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="K41" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="L41" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="N41" t="s">
+        <v>152</v>
       </c>
       <c r="O41" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="P41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="R41" t="s">
+        <v>142</v>
+      </c>
+      <c r="S41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3338,40 +4079,43 @@
       <c r="E42">
         <v>60</v>
       </c>
-      <c r="G42" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" t="s">
-        <v>202</v>
+      <c r="H42" t="s">
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42">
+        <v>135</v>
+      </c>
+      <c r="K42" t="s">
+        <v>213</v>
+      </c>
+      <c r="L42" t="s">
+        <v>194</v>
+      </c>
+      <c r="M42">
         <v>30</v>
       </c>
-      <c r="L42" t="s">
-        <v>213</v>
-      </c>
-      <c r="M42" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" t="s">
-        <v>212</v>
+      <c r="N42" t="s">
+        <v>147</v>
       </c>
       <c r="P42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R42" t="s">
+        <v>142</v>
+      </c>
+      <c r="S42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3379,43 +4123,46 @@
       <c r="E43">
         <v>70</v>
       </c>
-      <c r="G43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43">
+      <c r="H43" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43">
         <v>20</v>
       </c>
-      <c r="I43" t="s">
-        <v>211</v>
-      </c>
       <c r="J43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K43">
+        <v>143</v>
+      </c>
+      <c r="L43" t="s">
+        <v>244</v>
+      </c>
+      <c r="M43">
         <v>30</v>
       </c>
-      <c r="L43" t="s">
-        <v>213</v>
-      </c>
-      <c r="M43" t="s">
-        <v>10</v>
-      </c>
       <c r="N43" t="s">
-        <v>206</v>
+        <v>147</v>
+      </c>
+      <c r="O43" t="s">
+        <v>245</v>
       </c>
       <c r="P43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>139</v>
+      </c>
+      <c r="S43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3423,43 +4170,49 @@
       <c r="E44">
         <v>70</v>
       </c>
-      <c r="G44" t="s">
-        <v>118</v>
-      </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K44">
+        <v>124</v>
+      </c>
+      <c r="K44" t="s">
+        <v>247</v>
+      </c>
+      <c r="L44" t="s">
+        <v>249</v>
+      </c>
+      <c r="M44">
         <v>50</v>
       </c>
-      <c r="L44" t="s">
-        <v>226</v>
-      </c>
-      <c r="M44" t="s">
-        <v>29</v>
+      <c r="N44" t="s">
+        <v>151</v>
       </c>
       <c r="O44" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="P44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="R44" t="s">
+        <v>142</v>
+      </c>
+      <c r="S44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3467,40 +4220,46 @@
       <c r="E45">
         <v>70</v>
       </c>
-      <c r="G45" t="s">
-        <v>122</v>
-      </c>
       <c r="H45" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="I45" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="K45" t="s">
+        <v>251</v>
       </c>
       <c r="L45" t="s">
         <v>228</v>
       </c>
-      <c r="M45" t="s">
-        <v>17</v>
+      <c r="M45">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>153</v>
+      </c>
+      <c r="O45" t="s">
+        <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="S45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3508,46 +4267,49 @@
       <c r="E46">
         <v>100</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>253</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>154</v>
+      </c>
+      <c r="L46" t="s">
+        <v>254</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46" t="s">
         <v>125</v>
       </c>
-      <c r="H46">
-        <v>30</v>
-      </c>
-      <c r="I46" t="s">
-        <v>214</v>
-      </c>
-      <c r="J46" t="s">
-        <v>126</v>
-      </c>
-      <c r="K46">
-        <v>50</v>
-      </c>
-      <c r="L46" t="s">
-        <v>210</v>
-      </c>
-      <c r="M46" t="s">
-        <v>34</v>
-      </c>
-      <c r="N46" t="s">
-        <v>217</v>
-      </c>
       <c r="O46" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="P46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>129</v>
+      </c>
+      <c r="R46" t="s">
+        <v>147</v>
+      </c>
+      <c r="S46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3555,90 +4317,96 @@
       <c r="E47">
         <v>70</v>
       </c>
-      <c r="G47" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>253</v>
+      </c>
+      <c r="I47">
         <v>10</v>
       </c>
-      <c r="I47" t="s">
-        <v>219</v>
-      </c>
       <c r="J47" t="s">
-        <v>129</v>
-      </c>
-      <c r="K47">
+        <v>133</v>
+      </c>
+      <c r="L47" t="s">
+        <v>256</v>
+      </c>
+      <c r="M47">
         <v>30</v>
       </c>
-      <c r="L47" t="s">
-        <v>229</v>
-      </c>
-      <c r="M47" t="s">
-        <v>7</v>
-      </c>
-      <c r="O47" t="s">
-        <v>212</v>
+      <c r="N47" t="s">
+        <v>155</v>
       </c>
       <c r="P47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="R47" t="s">
+        <v>142</v>
+      </c>
+      <c r="S47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <v>60</v>
       </c>
-      <c r="G48" t="s">
-        <v>122</v>
-      </c>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="I48" t="s">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="J48" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K48" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="L48" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N48" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="O48" t="s">
-        <v>211</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="P48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>139</v>
+      </c>
+      <c r="R48" t="s">
+        <v>143</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
         <v>134</v>
       </c>
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3646,647 +4414,700 @@
       <c r="E49">
         <v>70</v>
       </c>
-      <c r="G49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49">
+      <c r="H49" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49">
         <v>10</v>
       </c>
-      <c r="I49" t="s">
-        <v>203</v>
-      </c>
       <c r="J49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49" t="s">
+        <v>259</v>
+      </c>
+      <c r="L49" t="s">
+        <v>260</v>
+      </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49" t="s">
         <v>135</v>
       </c>
-      <c r="K49">
-        <v>30</v>
-      </c>
-      <c r="L49" t="s">
-        <v>202</v>
-      </c>
-      <c r="M49" t="s">
-        <v>13</v>
-      </c>
-      <c r="O49" t="s">
-        <v>212</v>
-      </c>
       <c r="P49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R49" t="s">
+        <v>142</v>
+      </c>
+      <c r="S49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
-      <c r="G50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H50">
+      <c r="H50" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50">
         <v>10</v>
       </c>
-      <c r="I50" t="s">
-        <v>203</v>
-      </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s">
-        <v>203</v>
-      </c>
-      <c r="M50" t="s">
-        <v>13</v>
+        <v>262</v>
+      </c>
+      <c r="N50" t="s">
+        <v>136</v>
       </c>
       <c r="O50" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R50" t="s">
+        <v>142</v>
+      </c>
+      <c r="S50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>40</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>264</v>
+      </c>
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" t="s">
+        <v>265</v>
+      </c>
+      <c r="L51" t="s">
+        <v>222</v>
+      </c>
+      <c r="M51" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>124</v>
+      </c>
+      <c r="O51" t="s">
+        <v>266</v>
+      </c>
+      <c r="P51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>129</v>
+      </c>
+      <c r="R51" t="s">
+        <v>142</v>
+      </c>
+      <c r="S51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
         <v>159</v>
       </c>
-      <c r="I51" t="s">
-        <v>212</v>
-      </c>
-      <c r="J51" t="s">
-        <v>84</v>
-      </c>
-      <c r="K51" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" t="s">
-        <v>209</v>
-      </c>
-      <c r="M51" t="s">
-        <v>34</v>
-      </c>
-      <c r="N51" t="s">
-        <v>217</v>
-      </c>
-      <c r="O51" t="s">
-        <v>212</v>
-      </c>
-      <c r="P51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>154</v>
-      </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
-      <c r="G52" t="s">
-        <v>162</v>
-      </c>
-      <c r="I52" t="s">
-        <v>212</v>
+      <c r="H52" t="s">
+        <v>267</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="L52" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="M52" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="O52" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>139</v>
+      </c>
+      <c r="R52" t="s">
+        <v>142</v>
+      </c>
+      <c r="S52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
-      <c r="G53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" t="s">
-        <v>207</v>
+      <c r="H53" t="s">
+        <v>96</v>
       </c>
       <c r="J53" t="s">
-        <v>166</v>
-      </c>
-      <c r="K53">
+        <v>141</v>
+      </c>
+      <c r="L53" t="s">
+        <v>97</v>
+      </c>
+      <c r="M53">
         <v>20</v>
       </c>
-      <c r="L53" t="s">
-        <v>202</v>
-      </c>
-      <c r="M53" t="s">
-        <v>13</v>
-      </c>
-      <c r="O53" t="s">
-        <v>212</v>
+      <c r="N53" t="s">
+        <v>135</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R53" t="s">
+        <v>142</v>
+      </c>
+      <c r="S53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E54">
         <v>40</v>
       </c>
-      <c r="G54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54">
+      <c r="H54" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54">
         <v>10</v>
       </c>
-      <c r="I54" t="s">
-        <v>219</v>
-      </c>
-      <c r="M54" t="s">
-        <v>7</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" t="s">
+        <v>127</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E55">
         <v>60</v>
       </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s">
         <v>212</v>
       </c>
       <c r="J55" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55">
+        <v>142</v>
+      </c>
+      <c r="K55" t="s">
+        <v>213</v>
+      </c>
+      <c r="L55" t="s">
+        <v>269</v>
+      </c>
+      <c r="M55">
         <v>20</v>
       </c>
-      <c r="L55" t="s">
-        <v>211</v>
-      </c>
-      <c r="M55" t="s">
-        <v>10</v>
-      </c>
       <c r="N55" t="s">
-        <v>206</v>
-      </c>
-      <c r="O55" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>139</v>
+      </c>
+      <c r="R55" t="s">
+        <v>142</v>
+      </c>
+      <c r="S55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E56">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
-      </c>
-      <c r="H56">
+        <v>270</v>
+      </c>
+      <c r="H56" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56">
         <v>10</v>
       </c>
-      <c r="I56" t="s">
-        <v>212</v>
-      </c>
-      <c r="M56" t="s">
-        <v>29</v>
+      <c r="J56" t="s">
+        <v>142</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="S56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>50</v>
       </c>
-      <c r="G57" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57">
+      <c r="H57" t="s">
+        <v>272</v>
+      </c>
+      <c r="I57">
         <v>10</v>
       </c>
-      <c r="I57" t="s">
-        <v>211</v>
-      </c>
-      <c r="M57" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" t="s">
-        <v>206</v>
-      </c>
-      <c r="O57" t="s">
-        <v>212</v>
+      <c r="J57" t="s">
+        <v>143</v>
+      </c>
+      <c r="K57" t="s">
+        <v>273</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>139</v>
+      </c>
+      <c r="R57" t="s">
+        <v>142</v>
+      </c>
+      <c r="S57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>60</v>
       </c>
-      <c r="G58" t="s">
-        <v>118</v>
-      </c>
       <c r="H58" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="I58" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="J58" t="s">
-        <v>156</v>
+        <v>136</v>
+      </c>
+      <c r="K58" t="s">
+        <v>274</v>
       </c>
       <c r="L58" t="s">
-        <v>202</v>
-      </c>
-      <c r="M58" t="s">
-        <v>29</v>
+        <v>262</v>
+      </c>
+      <c r="N58" t="s">
+        <v>135</v>
       </c>
       <c r="O58" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="R58" t="s">
+        <v>142</v>
+      </c>
+      <c r="S58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E59">
         <v>50</v>
       </c>
-      <c r="G59" t="s">
-        <v>183</v>
-      </c>
-      <c r="H59">
+      <c r="H59" t="s">
+        <v>276</v>
+      </c>
+      <c r="I59">
         <v>10</v>
       </c>
-      <c r="I59" t="s">
-        <v>203</v>
-      </c>
       <c r="J59" t="s">
-        <v>184</v>
+        <v>136</v>
+      </c>
+      <c r="K59" t="s">
+        <v>191</v>
       </c>
       <c r="L59" t="s">
-        <v>202</v>
-      </c>
-      <c r="M59" t="s">
-        <v>13</v>
+        <v>277</v>
+      </c>
+      <c r="N59" t="s">
+        <v>135</v>
       </c>
       <c r="O59" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R59" t="s">
+        <v>142</v>
+      </c>
+      <c r="S59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L60" t="s">
+        <v>57</v>
+      </c>
+      <c r="N60" t="s">
+        <v>135</v>
+      </c>
+      <c r="O60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P60" t="s">
+        <v>131</v>
+      </c>
+      <c r="R60" t="s">
+        <v>142</v>
+      </c>
+      <c r="S60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-      <c r="H60">
-        <v>20</v>
-      </c>
-      <c r="I60" t="s">
-        <v>211</v>
-      </c>
-      <c r="J60" t="s">
-        <v>111</v>
-      </c>
-      <c r="L60" t="s">
-        <v>202</v>
-      </c>
-      <c r="M60" t="s">
-        <v>13</v>
-      </c>
-      <c r="O60" t="s">
-        <v>212</v>
-      </c>
-      <c r="P60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>188</v>
-      </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E61">
         <v>50</v>
       </c>
-      <c r="G61" t="s">
-        <v>189</v>
-      </c>
-      <c r="H61">
+      <c r="H61" t="s">
+        <v>279</v>
+      </c>
+      <c r="I61">
         <v>20</v>
       </c>
-      <c r="I61" t="s">
-        <v>218</v>
-      </c>
-      <c r="M61" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" t="s">
-        <v>212</v>
+      <c r="J61" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" t="s">
+        <v>280</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s">
+        <v>142</v>
+      </c>
+      <c r="S61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>70</v>
       </c>
-      <c r="G62" t="s">
-        <v>192</v>
-      </c>
-      <c r="I62" t="s">
-        <v>212</v>
+      <c r="H62" t="s">
+        <v>281</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
-      </c>
-      <c r="K62">
+        <v>142</v>
+      </c>
+      <c r="K62" t="s">
+        <v>282</v>
+      </c>
+      <c r="L62" t="s">
+        <v>253</v>
+      </c>
+      <c r="M62">
         <v>30</v>
       </c>
-      <c r="L62" t="s">
-        <v>214</v>
-      </c>
-      <c r="M62" t="s">
-        <v>34</v>
-      </c>
       <c r="N62" t="s">
-        <v>217</v>
-      </c>
-      <c r="O62" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>129</v>
+      </c>
+      <c r="R62" t="s">
+        <v>147</v>
+      </c>
+      <c r="S62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="E63">
         <v>50</v>
       </c>
-      <c r="G63" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63">
+      <c r="H63" t="s">
+        <v>283</v>
+      </c>
+      <c r="I63">
         <v>10</v>
       </c>
-      <c r="I63" t="s">
-        <v>212</v>
-      </c>
       <c r="J63" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="L63" t="s">
-        <v>213</v>
-      </c>
-      <c r="M63" t="s">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="N63" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>129</v>
+      </c>
+      <c r="S63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E64">
         <v>40</v>
       </c>
-      <c r="G64" t="s">
-        <v>183</v>
-      </c>
-      <c r="H64">
+      <c r="H64" t="s">
+        <v>276</v>
+      </c>
+      <c r="I64">
         <v>10</v>
       </c>
-      <c r="I64" t="s">
-        <v>203</v>
-      </c>
       <c r="J64" t="s">
-        <v>200</v>
-      </c>
-      <c r="K64">
+        <v>136</v>
+      </c>
+      <c r="K64" t="s">
+        <v>191</v>
+      </c>
+      <c r="L64" t="s">
+        <v>285</v>
+      </c>
+      <c r="M64">
         <v>10</v>
       </c>
-      <c r="L64" t="s">
-        <v>215</v>
-      </c>
-      <c r="M64" t="s">
-        <v>13</v>
+      <c r="N64" t="s">
+        <v>148</v>
       </c>
       <c r="O64" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>131</v>
+      </c>
+      <c r="R64" t="s">
+        <v>142</v>
+      </c>
+      <c r="S64" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P24" r:id="rId1" location="/media/File:NidoqueenJungle7.jpg" xr:uid="{076C819C-EB24-4FD7-B879-9DE1331DB110}"/>
-    <hyperlink ref="P54" r:id="rId2" xr:uid="{FDA5E78A-432E-4782-A210-6CCCCF385EB6}"/>
-    <hyperlink ref="P48" r:id="rId3" location="/media/File:TaurosJungle47.jpg" xr:uid="{B46A228C-77CB-46FC-A609-A79EDA5123EC}"/>
+    <hyperlink ref="S54" r:id="rId1" xr:uid="{FDA5E78A-432E-4782-A210-6CCCCF385EB6}"/>
+    <hyperlink ref="S48" r:id="rId2" location="/media/File:TaurosJungle47.jpg" xr:uid="{B46A228C-77CB-46FC-A609-A79EDA5123EC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/datasets/jungle/jungle_ds.xlsx
+++ b/data/datasets/jungle/jungle_ds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Me\GitHub\KYC\data\datasets\jungle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82A5B1C-D447-4A86-AB9C-19A5B8D3C5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAACF62-2869-4A2C-8ED5-2508CE5F7278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2097,19 +2097,19 @@
     <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="79.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2132,43 +2132,43 @@
         <v>78</v>
       </c>
       <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" t="s">
         <v>164</v>
       </c>
-      <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>165</v>
       </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>166</v>
-      </c>
-      <c r="P1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2187,35 +2187,35 @@
       <c r="E2">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>162</v>
       </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
       <c r="J2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>167</v>
       </c>
-      <c r="L2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>168</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2234,35 +2234,35 @@
       <c r="E3">
         <v>90</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>169</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>20</v>
       </c>
+      <c r="I3" t="s">
+        <v>143</v>
+      </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>170</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
         <v>128</v>
       </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
       <c r="O3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
         <v>171</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2281,38 +2281,38 @@
       <c r="E4">
         <v>70</v>
       </c>
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
         <v>173</v>
       </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>174</v>
-      </c>
-      <c r="P4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2331,38 +2331,38 @@
       <c r="E5">
         <v>70</v>
       </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
         <v>173</v>
       </c>
-      <c r="L5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="S5" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>142</v>
-      </c>
-      <c r="S5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2381,41 +2381,41 @@
       <c r="E6">
         <v>90</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>177</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
         <v>178</v>
       </c>
-      <c r="L6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="S6" t="s">
         <v>175</v>
-      </c>
-      <c r="P6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>139</v>
-      </c>
-      <c r="R6" t="s">
-        <v>147</v>
-      </c>
-      <c r="S6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2438,25 +2438,25 @@
         <v>180</v>
       </c>
       <c r="G7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
         <v>181</v>
       </c>
-      <c r="H7" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="R7" t="s">
         <v>183</v>
-      </c>
-      <c r="P7" t="s">
-        <v>140</v>
-      </c>
-      <c r="R7" t="s">
-        <v>142</v>
-      </c>
-      <c r="S7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2475,35 +2475,35 @@
       <c r="E8">
         <v>90</v>
       </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
         <v>185</v>
-      </c>
-      <c r="L8" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>149</v>
-      </c>
-      <c r="P8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2522,35 +2522,35 @@
       <c r="E9">
         <v>80</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>187</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>20</v>
       </c>
+      <c r="I9" t="s">
+        <v>143</v>
+      </c>
       <c r="J9" t="s">
-        <v>143</v>
+        <v>188</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="M9" t="s">
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>147</v>
-      </c>
-      <c r="O9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" t="s">
         <v>189</v>
-      </c>
-      <c r="P9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2569,35 +2569,35 @@
       <c r="E10">
         <v>60</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>190</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <v>20</v>
       </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
       <c r="J10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
         <v>191</v>
-      </c>
-      <c r="L10" t="s">
-        <v>192</v>
-      </c>
-      <c r="M10">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P10" t="s">
-        <v>131</v>
-      </c>
-      <c r="R10" t="s">
-        <v>142</v>
-      </c>
-      <c r="S10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2616,32 +2616,32 @@
       <c r="E11">
         <v>70</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>193</v>
       </c>
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
       <c r="J11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
         <v>195</v>
-      </c>
-      <c r="L11" t="s">
-        <v>194</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2664,31 +2664,31 @@
         <v>197</v>
       </c>
       <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
         <v>196</v>
       </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="R12" t="s">
         <v>191</v>
-      </c>
-      <c r="P12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>139</v>
-      </c>
-      <c r="R12" t="s">
-        <v>147</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2707,38 +2707,38 @@
       <c r="E13">
         <v>80</v>
       </c>
+      <c r="G13" t="s">
+        <v>172</v>
+      </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" t="s">
         <v>173</v>
       </c>
-      <c r="L13" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>150</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="S13" t="s">
         <v>199</v>
-      </c>
-      <c r="P13" t="s">
-        <v>127</v>
-      </c>
-      <c r="R13" t="s">
-        <v>142</v>
-      </c>
-      <c r="S13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2761,28 +2761,28 @@
         <v>200</v>
       </c>
       <c r="G14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" t="s">
         <v>201</v>
       </c>
-      <c r="H14" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="R14" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2801,35 +2801,35 @@
       <c r="E15">
         <v>80</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>204</v>
       </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
       <c r="J15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" t="s">
         <v>206</v>
       </c>
-      <c r="L15" t="s">
-        <v>205</v>
-      </c>
-      <c r="M15">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="S15" t="s">
         <v>207</v>
-      </c>
-      <c r="P15" t="s">
-        <v>131</v>
-      </c>
-      <c r="R15" t="s">
-        <v>143</v>
-      </c>
-      <c r="S15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2852,28 +2852,28 @@
         <v>208</v>
       </c>
       <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
         <v>209</v>
       </c>
-      <c r="H16" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="R16" t="s">
         <v>211</v>
-      </c>
-      <c r="P16" t="s">
-        <v>131</v>
-      </c>
-      <c r="R16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2892,38 +2892,38 @@
       <c r="E17">
         <v>80</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>212</v>
       </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" t="s">
         <v>213</v>
       </c>
-      <c r="L17" t="s">
-        <v>215</v>
-      </c>
-      <c r="M17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="S17" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>139</v>
-      </c>
-      <c r="R17" t="s">
-        <v>143</v>
-      </c>
-      <c r="S17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2942,35 +2942,35 @@
       <c r="E18">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>162</v>
       </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
       <c r="J18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
         <v>167</v>
       </c>
-      <c r="L18" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" t="s">
-        <v>143</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="S18" t="s">
         <v>168</v>
-      </c>
-      <c r="P18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>139</v>
-      </c>
-      <c r="R18" t="s">
-        <v>143</v>
-      </c>
-      <c r="S18" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2989,35 +2989,35 @@
       <c r="E19">
         <v>90</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>169</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <v>20</v>
       </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>170</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19">
-        <v>20</v>
-      </c>
-      <c r="N19" t="s">
         <v>128</v>
       </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
       <c r="O19" t="s">
+        <v>142</v>
+      </c>
+      <c r="P19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
         <v>171</v>
-      </c>
-      <c r="P19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" t="s">
-        <v>142</v>
-      </c>
-      <c r="S19" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -3036,38 +3036,38 @@
       <c r="E20">
         <v>70</v>
       </c>
+      <c r="G20" t="s">
+        <v>172</v>
+      </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
-      </c>
-      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" t="s">
         <v>173</v>
       </c>
-      <c r="L20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>60</v>
-      </c>
-      <c r="N20" t="s">
-        <v>144</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="S20" t="s">
         <v>174</v>
-      </c>
-      <c r="P20" t="s">
-        <v>132</v>
-      </c>
-      <c r="R20" t="s">
-        <v>142</v>
-      </c>
-      <c r="S20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3086,38 +3086,38 @@
       <c r="E21">
         <v>70</v>
       </c>
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" t="s">
         <v>173</v>
       </c>
-      <c r="L21" t="s">
-        <v>176</v>
-      </c>
-      <c r="M21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="S21" t="s">
         <v>175</v>
-      </c>
-      <c r="P21" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" t="s">
-        <v>142</v>
-      </c>
-      <c r="S21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -3136,41 +3136,41 @@
       <c r="E22">
         <v>90</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>177</v>
       </c>
-      <c r="I22">
+      <c r="H22">
         <v>0</v>
       </c>
+      <c r="I22" t="s">
+        <v>142</v>
+      </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" t="s">
         <v>178</v>
       </c>
-      <c r="L22" t="s">
-        <v>179</v>
-      </c>
-      <c r="M22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" t="s">
-        <v>146</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="S22" t="s">
         <v>175</v>
-      </c>
-      <c r="P22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>139</v>
-      </c>
-      <c r="R22" t="s">
-        <v>147</v>
-      </c>
-      <c r="S22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3193,25 +3193,25 @@
         <v>180</v>
       </c>
       <c r="G23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="s">
         <v>181</v>
       </c>
-      <c r="H23" t="s">
-        <v>182</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="R23" t="s">
         <v>183</v>
-      </c>
-      <c r="P23" t="s">
-        <v>140</v>
-      </c>
-      <c r="R23" t="s">
-        <v>142</v>
-      </c>
-      <c r="S23" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3230,35 +3230,35 @@
       <c r="E24">
         <v>90</v>
       </c>
+      <c r="G24" t="s">
+        <v>184</v>
+      </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
-      </c>
-      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" t="s">
         <v>185</v>
-      </c>
-      <c r="L24" t="s">
-        <v>186</v>
-      </c>
-      <c r="M24">
-        <v>50</v>
-      </c>
-      <c r="N24" t="s">
-        <v>149</v>
-      </c>
-      <c r="P24" t="s">
-        <v>140</v>
-      </c>
-      <c r="R24" t="s">
-        <v>147</v>
-      </c>
-      <c r="S24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3277,35 +3277,35 @@
       <c r="E25">
         <v>80</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
         <v>187</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <v>20</v>
       </c>
+      <c r="I25" t="s">
+        <v>143</v>
+      </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>188</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
-      </c>
-      <c r="M25">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="M25" t="s">
+        <v>127</v>
       </c>
       <c r="N25" t="s">
-        <v>147</v>
-      </c>
-      <c r="O25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" t="s">
         <v>189</v>
-      </c>
-      <c r="P25" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>123</v>
-      </c>
-      <c r="S25" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -3324,35 +3324,35 @@
       <c r="E26">
         <v>60</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>190</v>
       </c>
-      <c r="I26">
+      <c r="H26">
         <v>20</v>
       </c>
+      <c r="I26" t="s">
+        <v>135</v>
+      </c>
       <c r="J26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26">
+        <v>50</v>
+      </c>
+      <c r="L26" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" t="s">
-        <v>192</v>
-      </c>
-      <c r="M26">
-        <v>50</v>
-      </c>
-      <c r="N26" t="s">
-        <v>149</v>
-      </c>
-      <c r="P26" t="s">
-        <v>131</v>
-      </c>
-      <c r="R26" t="s">
-        <v>142</v>
-      </c>
-      <c r="S26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3371,32 +3371,32 @@
       <c r="E27">
         <v>70</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>193</v>
       </c>
+      <c r="I27" t="s">
+        <v>136</v>
+      </c>
       <c r="J27" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" t="s">
         <v>195</v>
-      </c>
-      <c r="L27" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27">
-        <v>30</v>
-      </c>
-      <c r="N27" t="s">
-        <v>147</v>
-      </c>
-      <c r="P27" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>123</v>
-      </c>
-      <c r="S27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3419,31 +3419,31 @@
         <v>197</v>
       </c>
       <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
         <v>196</v>
       </c>
-      <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="R28" t="s">
         <v>191</v>
-      </c>
-      <c r="P28" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>139</v>
-      </c>
-      <c r="R28" t="s">
-        <v>147</v>
-      </c>
-      <c r="S28" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -3462,38 +3462,38 @@
       <c r="E29">
         <v>80</v>
       </c>
+      <c r="G29" t="s">
+        <v>172</v>
+      </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29" t="s">
+        <v>127</v>
+      </c>
+      <c r="O29" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" t="s">
         <v>173</v>
       </c>
-      <c r="L29" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" t="s">
-        <v>150</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="S29" t="s">
         <v>199</v>
-      </c>
-      <c r="P29" t="s">
-        <v>127</v>
-      </c>
-      <c r="R29" t="s">
-        <v>142</v>
-      </c>
-      <c r="S29" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3516,28 +3516,28 @@
         <v>200</v>
       </c>
       <c r="G30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" t="s">
         <v>201</v>
       </c>
-      <c r="H30" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="R30" t="s">
         <v>203</v>
-      </c>
-      <c r="P30" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>123</v>
-      </c>
-      <c r="S30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3556,35 +3556,35 @@
       <c r="E31">
         <v>80</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>204</v>
       </c>
+      <c r="I31" t="s">
+        <v>136</v>
+      </c>
       <c r="J31" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" t="s">
+        <v>131</v>
+      </c>
+      <c r="O31" t="s">
+        <v>143</v>
+      </c>
+      <c r="P31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" t="s">
         <v>206</v>
       </c>
-      <c r="L31" t="s">
-        <v>205</v>
-      </c>
-      <c r="M31">
-        <v>20</v>
-      </c>
-      <c r="N31" t="s">
-        <v>135</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="S31" t="s">
         <v>207</v>
-      </c>
-      <c r="P31" t="s">
-        <v>131</v>
-      </c>
-      <c r="R31" t="s">
-        <v>143</v>
-      </c>
-      <c r="S31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3607,28 +3607,28 @@
         <v>208</v>
       </c>
       <c r="G32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>137</v>
+      </c>
+      <c r="M32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O32" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" t="s">
         <v>209</v>
       </c>
-      <c r="H32" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" t="s">
-        <v>137</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="R32" t="s">
         <v>211</v>
-      </c>
-      <c r="P32" t="s">
-        <v>131</v>
-      </c>
-      <c r="R32" t="s">
-        <v>143</v>
-      </c>
-      <c r="S32" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3647,38 +3647,38 @@
       <c r="E33">
         <v>80</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
         <v>212</v>
       </c>
+      <c r="I33" t="s">
+        <v>142</v>
+      </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>139</v>
+      </c>
+      <c r="O33" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s">
         <v>213</v>
       </c>
-      <c r="L33" t="s">
-        <v>215</v>
-      </c>
-      <c r="M33" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>147</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="S33" t="s">
         <v>214</v>
-      </c>
-      <c r="P33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>139</v>
-      </c>
-      <c r="R33" t="s">
-        <v>143</v>
-      </c>
-      <c r="S33" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3697,38 +3697,38 @@
       <c r="E34">
         <v>70</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>216</v>
       </c>
-      <c r="I34">
+      <c r="H34">
         <v>20</v>
       </c>
+      <c r="I34" t="s">
+        <v>143</v>
+      </c>
       <c r="J34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34">
+        <v>40</v>
+      </c>
+      <c r="L34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s">
         <v>217</v>
       </c>
-      <c r="L34" t="s">
-        <v>219</v>
-      </c>
-      <c r="M34">
-        <v>40</v>
-      </c>
-      <c r="N34" t="s">
-        <v>138</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="S34" t="s">
         <v>218</v>
-      </c>
-      <c r="P34" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>123</v>
-      </c>
-      <c r="S34" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3751,28 +3751,28 @@
         <v>220</v>
       </c>
       <c r="G35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" t="s">
         <v>221</v>
       </c>
-      <c r="H35" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" t="s">
-        <v>147</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="R35" t="s">
         <v>223</v>
-      </c>
-      <c r="P35" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>123</v>
-      </c>
-      <c r="S35" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3791,35 +3791,35 @@
       <c r="E36">
         <v>80</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
         <v>224</v>
       </c>
+      <c r="I36" t="s">
+        <v>141</v>
+      </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>142</v>
+      </c>
+      <c r="M36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" t="s">
+        <v>147</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" t="s">
         <v>226</v>
       </c>
-      <c r="L36" t="s">
-        <v>225</v>
-      </c>
-      <c r="M36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36" t="s">
-        <v>142</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="S36" t="s">
         <v>227</v>
-      </c>
-      <c r="P36" t="s">
-        <v>131</v>
-      </c>
-      <c r="R36" t="s">
-        <v>147</v>
-      </c>
-      <c r="S36" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3838,35 +3838,35 @@
       <c r="E37">
         <v>70</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
         <v>228</v>
       </c>
-      <c r="I37">
+      <c r="H37">
         <v>20</v>
       </c>
+      <c r="I37" t="s">
+        <v>147</v>
+      </c>
       <c r="J37" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37">
+        <v>40</v>
+      </c>
+      <c r="L37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M37" t="s">
+        <v>127</v>
+      </c>
+      <c r="N37" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" t="s">
         <v>229</v>
-      </c>
-      <c r="L37" t="s">
-        <v>230</v>
-      </c>
-      <c r="M37">
-        <v>40</v>
-      </c>
-      <c r="N37" t="s">
-        <v>146</v>
-      </c>
-      <c r="P37" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>123</v>
-      </c>
-      <c r="S37" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3885,35 +3885,35 @@
       <c r="E38">
         <v>60</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>231</v>
       </c>
+      <c r="I38" t="s">
+        <v>136</v>
+      </c>
       <c r="J38" t="s">
-        <v>136</v>
-      </c>
-      <c r="K38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>135</v>
+      </c>
+      <c r="M38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+      <c r="R38" t="s">
         <v>232</v>
       </c>
-      <c r="L38" t="s">
-        <v>234</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38" t="s">
-        <v>135</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="S38" t="s">
         <v>233</v>
-      </c>
-      <c r="P38" t="s">
-        <v>131</v>
-      </c>
-      <c r="R38" t="s">
-        <v>142</v>
-      </c>
-      <c r="S38" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -3932,38 +3932,38 @@
       <c r="E39">
         <v>90</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
         <v>235</v>
       </c>
-      <c r="I39">
+      <c r="H39">
         <v>10</v>
       </c>
+      <c r="I39" t="s">
+        <v>142</v>
+      </c>
       <c r="J39" t="s">
-        <v>142</v>
-      </c>
-      <c r="K39" t="s">
+        <v>236</v>
+      </c>
+      <c r="L39" t="s">
+        <v>143</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" t="s">
+        <v>147</v>
+      </c>
+      <c r="P39" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39" t="s">
         <v>191</v>
       </c>
-      <c r="L39" t="s">
-        <v>236</v>
-      </c>
-      <c r="N39" t="s">
-        <v>143</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="S39" t="s">
         <v>237</v>
-      </c>
-      <c r="P39" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>139</v>
-      </c>
-      <c r="R39" t="s">
-        <v>147</v>
-      </c>
-      <c r="S39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -3982,38 +3982,38 @@
       <c r="E40">
         <v>60</v>
       </c>
+      <c r="G40" t="s">
+        <v>238</v>
+      </c>
       <c r="H40" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>124</v>
-      </c>
-      <c r="K40" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" t="s">
+        <v>151</v>
+      </c>
+      <c r="M40" t="s">
+        <v>134</v>
+      </c>
+      <c r="N40" t="s">
+        <v>129</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" t="s">
+        <v>53</v>
+      </c>
+      <c r="R40" t="s">
         <v>240</v>
       </c>
-      <c r="L40" t="s">
-        <v>239</v>
-      </c>
-      <c r="N40" t="s">
-        <v>151</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="S40" t="s">
         <v>241</v>
-      </c>
-      <c r="P40" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>129</v>
-      </c>
-      <c r="R40" t="s">
-        <v>142</v>
-      </c>
-      <c r="S40" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4032,35 +4032,35 @@
       <c r="E41">
         <v>70</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
         <v>236</v>
       </c>
+      <c r="I41" t="s">
+        <v>136</v>
+      </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>152</v>
+      </c>
+      <c r="M41" t="s">
+        <v>140</v>
+      </c>
+      <c r="O41" t="s">
+        <v>142</v>
+      </c>
+      <c r="P41" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" t="s">
         <v>237</v>
       </c>
-      <c r="L41" t="s">
-        <v>242</v>
-      </c>
-      <c r="M41" t="s">
-        <v>52</v>
-      </c>
-      <c r="N41" t="s">
-        <v>152</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="S41" t="s">
         <v>240</v>
-      </c>
-      <c r="P41" t="s">
-        <v>140</v>
-      </c>
-      <c r="R41" t="s">
-        <v>142</v>
-      </c>
-      <c r="S41" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4079,32 +4079,32 @@
       <c r="E42">
         <v>60</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
         <v>57</v>
       </c>
+      <c r="I42" t="s">
+        <v>135</v>
+      </c>
       <c r="J42" t="s">
-        <v>135</v>
-      </c>
-      <c r="K42" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42">
+        <v>30</v>
+      </c>
+      <c r="L42" t="s">
+        <v>147</v>
+      </c>
+      <c r="M42" t="s">
+        <v>131</v>
+      </c>
+      <c r="O42" t="s">
+        <v>142</v>
+      </c>
+      <c r="P42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" t="s">
         <v>213</v>
-      </c>
-      <c r="L42" t="s">
-        <v>194</v>
-      </c>
-      <c r="M42">
-        <v>30</v>
-      </c>
-      <c r="N42" t="s">
-        <v>147</v>
-      </c>
-      <c r="P42" t="s">
-        <v>131</v>
-      </c>
-      <c r="R42" t="s">
-        <v>142</v>
-      </c>
-      <c r="S42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4123,35 +4123,35 @@
       <c r="E43">
         <v>70</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
         <v>243</v>
       </c>
-      <c r="I43">
+      <c r="H43">
         <v>20</v>
       </c>
+      <c r="I43" t="s">
+        <v>143</v>
+      </c>
       <c r="J43" t="s">
-        <v>143</v>
+        <v>244</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
       </c>
       <c r="L43" t="s">
-        <v>244</v>
-      </c>
-      <c r="M43">
-        <v>30</v>
+        <v>147</v>
+      </c>
+      <c r="M43" t="s">
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>147</v>
-      </c>
-      <c r="O43" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" t="s">
+        <v>60</v>
+      </c>
+      <c r="S43" t="s">
         <v>245</v>
-      </c>
-      <c r="P43" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>139</v>
-      </c>
-      <c r="S43" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -4170,38 +4170,38 @@
       <c r="E44">
         <v>70</v>
       </c>
+      <c r="G44" t="s">
+        <v>246</v>
+      </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
-      </c>
-      <c r="K44" t="s">
+        <v>249</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
+        <v>151</v>
+      </c>
+      <c r="M44" t="s">
+        <v>140</v>
+      </c>
+      <c r="O44" t="s">
+        <v>142</v>
+      </c>
+      <c r="P44" t="s">
+        <v>62</v>
+      </c>
+      <c r="R44" t="s">
         <v>247</v>
       </c>
-      <c r="L44" t="s">
-        <v>249</v>
-      </c>
-      <c r="M44">
-        <v>50</v>
-      </c>
-      <c r="N44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="S44" t="s">
         <v>248</v>
-      </c>
-      <c r="P44" t="s">
-        <v>140</v>
-      </c>
-      <c r="R44" t="s">
-        <v>142</v>
-      </c>
-      <c r="S44" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4220,35 +4220,35 @@
       <c r="E45">
         <v>70</v>
       </c>
+      <c r="G45" t="s">
+        <v>250</v>
+      </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>143</v>
-      </c>
-      <c r="K45" t="s">
+        <v>228</v>
+      </c>
+      <c r="K45">
+        <v>30</v>
+      </c>
+      <c r="L45" t="s">
+        <v>153</v>
+      </c>
+      <c r="M45" t="s">
+        <v>132</v>
+      </c>
+      <c r="P45" t="s">
+        <v>64</v>
+      </c>
+      <c r="R45" t="s">
         <v>251</v>
       </c>
-      <c r="L45" t="s">
-        <v>228</v>
-      </c>
-      <c r="M45">
-        <v>30</v>
-      </c>
-      <c r="N45" t="s">
-        <v>153</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="S45" t="s">
         <v>252</v>
-      </c>
-      <c r="P45" t="s">
-        <v>132</v>
-      </c>
-      <c r="S45" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4267,38 +4267,38 @@
       <c r="E46">
         <v>100</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
         <v>253</v>
       </c>
-      <c r="I46">
+      <c r="H46">
         <v>30</v>
       </c>
+      <c r="I46" t="s">
+        <v>154</v>
+      </c>
       <c r="J46" t="s">
-        <v>154</v>
+        <v>254</v>
+      </c>
+      <c r="K46">
+        <v>50</v>
       </c>
       <c r="L46" t="s">
-        <v>254</v>
-      </c>
-      <c r="M46">
-        <v>50</v>
+        <v>125</v>
+      </c>
+      <c r="M46" t="s">
+        <v>134</v>
       </c>
       <c r="N46" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O46" t="s">
+        <v>147</v>
+      </c>
+      <c r="P46" t="s">
+        <v>66</v>
+      </c>
+      <c r="S46" t="s">
         <v>255</v>
-      </c>
-      <c r="P46" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>129</v>
-      </c>
-      <c r="R46" t="s">
-        <v>147</v>
-      </c>
-      <c r="S46" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -4317,31 +4317,31 @@
       <c r="E47">
         <v>70</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
         <v>253</v>
       </c>
-      <c r="I47">
+      <c r="H47">
         <v>10</v>
       </c>
+      <c r="I47" t="s">
+        <v>133</v>
+      </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>256</v>
+      </c>
+      <c r="K47">
+        <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>256</v>
-      </c>
-      <c r="M47">
-        <v>30</v>
-      </c>
-      <c r="N47" t="s">
         <v>155</v>
       </c>
+      <c r="M47" t="s">
+        <v>127</v>
+      </c>
+      <c r="O47" t="s">
+        <v>142</v>
+      </c>
       <c r="P47" t="s">
-        <v>127</v>
-      </c>
-      <c r="R47" t="s">
-        <v>142</v>
-      </c>
-      <c r="S47" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4361,41 +4361,41 @@
       <c r="E48">
         <v>60</v>
       </c>
+      <c r="G48" t="s">
+        <v>250</v>
+      </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" t="s">
+        <v>257</v>
+      </c>
+      <c r="K48" t="s">
         <v>16</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
+        <v>147</v>
+      </c>
+      <c r="M48" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>139</v>
+      </c>
+      <c r="O48" t="s">
         <v>143</v>
       </c>
-      <c r="K48" t="s">
+      <c r="P48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R48" t="s">
         <v>251</v>
       </c>
-      <c r="L48" t="s">
-        <v>257</v>
-      </c>
-      <c r="M48" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" t="s">
-        <v>147</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="S48" t="s">
         <v>258</v>
-      </c>
-      <c r="P48" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>139</v>
-      </c>
-      <c r="R48" t="s">
-        <v>143</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4414,35 +4414,35 @@
       <c r="E49">
         <v>70</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s">
         <v>231</v>
       </c>
-      <c r="I49">
+      <c r="H49">
         <v>10</v>
       </c>
+      <c r="I49" t="s">
+        <v>136</v>
+      </c>
       <c r="J49" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49" t="s">
+        <v>260</v>
+      </c>
+      <c r="K49">
+        <v>30</v>
+      </c>
+      <c r="L49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M49" t="s">
+        <v>131</v>
+      </c>
+      <c r="O49" t="s">
+        <v>142</v>
+      </c>
+      <c r="P49" t="s">
+        <v>72</v>
+      </c>
+      <c r="R49" t="s">
         <v>259</v>
-      </c>
-      <c r="L49" t="s">
-        <v>260</v>
-      </c>
-      <c r="M49">
-        <v>30</v>
-      </c>
-      <c r="N49" t="s">
-        <v>135</v>
-      </c>
-      <c r="P49" t="s">
-        <v>131</v>
-      </c>
-      <c r="R49" t="s">
-        <v>142</v>
-      </c>
-      <c r="S49" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4461,32 +4461,32 @@
       <c r="E50">
         <v>40</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s">
         <v>261</v>
       </c>
-      <c r="I50">
+      <c r="H50">
         <v>10</v>
       </c>
+      <c r="I50" t="s">
+        <v>136</v>
+      </c>
       <c r="J50" t="s">
+        <v>262</v>
+      </c>
+      <c r="L50" t="s">
         <v>136</v>
       </c>
-      <c r="L50" t="s">
-        <v>262</v>
-      </c>
-      <c r="N50" t="s">
-        <v>136</v>
+      <c r="M50" t="s">
+        <v>131</v>
       </c>
       <c r="O50" t="s">
+        <v>142</v>
+      </c>
+      <c r="P50" t="s">
+        <v>90</v>
+      </c>
+      <c r="S50" t="s">
         <v>263</v>
-      </c>
-      <c r="P50" t="s">
-        <v>131</v>
-      </c>
-      <c r="R50" t="s">
-        <v>142</v>
-      </c>
-      <c r="S50" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -4505,38 +4505,38 @@
       <c r="E51">
         <v>40</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51" t="s">
         <v>264</v>
       </c>
+      <c r="I51" t="s">
+        <v>142</v>
+      </c>
       <c r="J51" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M51" t="s">
+        <v>134</v>
+      </c>
+      <c r="N51" t="s">
+        <v>129</v>
+      </c>
+      <c r="O51" t="s">
         <v>142</v>
       </c>
-      <c r="K51" t="s">
+      <c r="P51" t="s">
+        <v>92</v>
+      </c>
+      <c r="R51" t="s">
         <v>265</v>
       </c>
-      <c r="L51" t="s">
-        <v>222</v>
-      </c>
-      <c r="M51" t="s">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>124</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="S51" t="s">
         <v>266</v>
-      </c>
-      <c r="P51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>129</v>
-      </c>
-      <c r="R51" t="s">
-        <v>142</v>
-      </c>
-      <c r="S51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -4555,38 +4555,38 @@
       <c r="E52">
         <v>50</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
         <v>267</v>
       </c>
+      <c r="I52" t="s">
+        <v>142</v>
+      </c>
       <c r="J52" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>143</v>
+      </c>
+      <c r="M52" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>139</v>
+      </c>
+      <c r="O52" t="s">
         <v>142</v>
       </c>
-      <c r="K52" t="s">
+      <c r="P52" t="s">
+        <v>94</v>
+      </c>
+      <c r="R52" t="s">
         <v>268</v>
       </c>
-      <c r="L52" t="s">
-        <v>172</v>
-      </c>
-      <c r="M52" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s">
-        <v>143</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="S52" t="s">
         <v>173</v>
-      </c>
-      <c r="P52" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>139</v>
-      </c>
-      <c r="R52" t="s">
-        <v>142</v>
-      </c>
-      <c r="S52" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -4605,28 +4605,28 @@
       <c r="E53">
         <v>50</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" t="s">
         <v>96</v>
       </c>
+      <c r="I53" t="s">
+        <v>141</v>
+      </c>
       <c r="J53" t="s">
-        <v>141</v>
+        <v>97</v>
+      </c>
+      <c r="K53">
+        <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>97</v>
-      </c>
-      <c r="M53">
-        <v>20</v>
-      </c>
-      <c r="N53" t="s">
         <v>135</v>
       </c>
+      <c r="M53" t="s">
+        <v>131</v>
+      </c>
+      <c r="O53" t="s">
+        <v>142</v>
+      </c>
       <c r="P53" t="s">
-        <v>131</v>
-      </c>
-      <c r="R53" t="s">
-        <v>142</v>
-      </c>
-      <c r="S53" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4646,19 +4646,19 @@
       <c r="E54">
         <v>40</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
         <v>253</v>
       </c>
-      <c r="I54">
+      <c r="H54">
         <v>10</v>
       </c>
-      <c r="J54" t="s">
+      <c r="I54" t="s">
         <v>133</v>
       </c>
-      <c r="P54" t="s">
+      <c r="M54" t="s">
         <v>127</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4678,35 +4678,35 @@
       <c r="E55">
         <v>60</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
         <v>212</v>
       </c>
+      <c r="I55" t="s">
+        <v>142</v>
+      </c>
       <c r="J55" t="s">
+        <v>269</v>
+      </c>
+      <c r="K55">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M55" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>139</v>
+      </c>
+      <c r="O55" t="s">
         <v>142</v>
       </c>
-      <c r="K55" t="s">
+      <c r="P55" t="s">
+        <v>102</v>
+      </c>
+      <c r="R55" t="s">
         <v>213</v>
-      </c>
-      <c r="L55" t="s">
-        <v>269</v>
-      </c>
-      <c r="M55">
-        <v>20</v>
-      </c>
-      <c r="N55" t="s">
-        <v>143</v>
-      </c>
-      <c r="P55" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>139</v>
-      </c>
-      <c r="R55" t="s">
-        <v>142</v>
-      </c>
-      <c r="S55" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -4729,22 +4729,22 @@
         <v>271</v>
       </c>
       <c r="G56" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>142</v>
+      </c>
+      <c r="M56" t="s">
+        <v>140</v>
+      </c>
+      <c r="P56" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q56" t="s">
         <v>270</v>
-      </c>
-      <c r="H56" t="s">
-        <v>243</v>
-      </c>
-      <c r="I56">
-        <v>10</v>
-      </c>
-      <c r="J56" t="s">
-        <v>142</v>
-      </c>
-      <c r="P56" t="s">
-        <v>140</v>
-      </c>
-      <c r="S56" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4763,29 +4763,29 @@
       <c r="E57">
         <v>50</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
         <v>272</v>
       </c>
-      <c r="I57">
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="J57" t="s">
+      <c r="I57" t="s">
         <v>143</v>
       </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>139</v>
+      </c>
+      <c r="O57" t="s">
+        <v>142</v>
+      </c>
+      <c r="P57" t="s">
+        <v>106</v>
+      </c>
+      <c r="R57" t="s">
         <v>273</v>
-      </c>
-      <c r="P57" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>139</v>
-      </c>
-      <c r="R57" t="s">
-        <v>142</v>
-      </c>
-      <c r="S57" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -4804,35 +4804,35 @@
       <c r="E58">
         <v>60</v>
       </c>
+      <c r="G58" t="s">
+        <v>246</v>
+      </c>
       <c r="H58" t="s">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
-      </c>
-      <c r="K58" t="s">
+        <v>262</v>
+      </c>
+      <c r="L58" t="s">
+        <v>135</v>
+      </c>
+      <c r="M58" t="s">
+        <v>140</v>
+      </c>
+      <c r="O58" t="s">
+        <v>142</v>
+      </c>
+      <c r="P58" t="s">
+        <v>109</v>
+      </c>
+      <c r="R58" t="s">
         <v>274</v>
       </c>
-      <c r="L58" t="s">
-        <v>262</v>
-      </c>
-      <c r="N58" t="s">
-        <v>135</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="S58" t="s">
         <v>275</v>
-      </c>
-      <c r="P58" t="s">
-        <v>140</v>
-      </c>
-      <c r="R58" t="s">
-        <v>142</v>
-      </c>
-      <c r="S58" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -4851,35 +4851,35 @@
       <c r="E59">
         <v>50</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
         <v>276</v>
       </c>
-      <c r="I59">
+      <c r="H59">
         <v>10</v>
       </c>
+      <c r="I59" t="s">
+        <v>136</v>
+      </c>
       <c r="J59" t="s">
-        <v>136</v>
-      </c>
-      <c r="K59" t="s">
+        <v>277</v>
+      </c>
+      <c r="L59" t="s">
+        <v>135</v>
+      </c>
+      <c r="M59" t="s">
+        <v>131</v>
+      </c>
+      <c r="O59" t="s">
+        <v>142</v>
+      </c>
+      <c r="P59" t="s">
+        <v>111</v>
+      </c>
+      <c r="R59" t="s">
         <v>191</v>
       </c>
-      <c r="L59" t="s">
-        <v>277</v>
-      </c>
-      <c r="N59" t="s">
-        <v>135</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="S59" t="s">
         <v>278</v>
-      </c>
-      <c r="P59" t="s">
-        <v>131</v>
-      </c>
-      <c r="R59" t="s">
-        <v>142</v>
-      </c>
-      <c r="S59" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -4898,32 +4898,32 @@
       <c r="E60">
         <v>40</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s">
         <v>243</v>
       </c>
-      <c r="I60">
+      <c r="H60">
         <v>20</v>
       </c>
+      <c r="I60" t="s">
+        <v>143</v>
+      </c>
       <c r="J60" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="L60" t="s">
-        <v>57</v>
-      </c>
-      <c r="N60" t="s">
         <v>135</v>
       </c>
+      <c r="M60" t="s">
+        <v>131</v>
+      </c>
       <c r="O60" t="s">
+        <v>142</v>
+      </c>
+      <c r="P60" t="s">
+        <v>113</v>
+      </c>
+      <c r="S60" t="s">
         <v>213</v>
-      </c>
-      <c r="P60" t="s">
-        <v>131</v>
-      </c>
-      <c r="R60" t="s">
-        <v>142</v>
-      </c>
-      <c r="S60" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -4942,26 +4942,26 @@
       <c r="E61">
         <v>50</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s">
         <v>279</v>
       </c>
-      <c r="I61">
+      <c r="H61">
         <v>20</v>
       </c>
-      <c r="J61" t="s">
+      <c r="I61" t="s">
         <v>130</v>
       </c>
-      <c r="K61" t="s">
+      <c r="M61" t="s">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>142</v>
+      </c>
+      <c r="P61" t="s">
+        <v>115</v>
+      </c>
+      <c r="R61" t="s">
         <v>280</v>
-      </c>
-      <c r="P61" t="s">
-        <v>2</v>
-      </c>
-      <c r="R61" t="s">
-        <v>142</v>
-      </c>
-      <c r="S61" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -4980,35 +4980,35 @@
       <c r="E62">
         <v>70</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
         <v>281</v>
       </c>
+      <c r="I62" t="s">
+        <v>142</v>
+      </c>
       <c r="J62" t="s">
-        <v>142</v>
-      </c>
-      <c r="K62" t="s">
+        <v>253</v>
+      </c>
+      <c r="K62">
+        <v>30</v>
+      </c>
+      <c r="L62" t="s">
+        <v>154</v>
+      </c>
+      <c r="M62" t="s">
+        <v>134</v>
+      </c>
+      <c r="N62" t="s">
+        <v>129</v>
+      </c>
+      <c r="O62" t="s">
+        <v>147</v>
+      </c>
+      <c r="P62" t="s">
+        <v>117</v>
+      </c>
+      <c r="R62" t="s">
         <v>282</v>
-      </c>
-      <c r="L62" t="s">
-        <v>253</v>
-      </c>
-      <c r="M62">
-        <v>30</v>
-      </c>
-      <c r="N62" t="s">
-        <v>154</v>
-      </c>
-      <c r="P62" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>129</v>
-      </c>
-      <c r="R62" t="s">
-        <v>147</v>
-      </c>
-      <c r="S62" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5027,28 +5027,28 @@
       <c r="E63">
         <v>50</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
         <v>283</v>
       </c>
-      <c r="I63">
+      <c r="H63">
         <v>10</v>
       </c>
+      <c r="I63" t="s">
+        <v>142</v>
+      </c>
       <c r="J63" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="L63" t="s">
-        <v>284</v>
+        <v>147</v>
+      </c>
+      <c r="M63" t="s">
+        <v>127</v>
       </c>
       <c r="N63" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>129</v>
-      </c>
-      <c r="S63" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5068,44 +5068,44 @@
       <c r="E64">
         <v>40</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s">
         <v>276</v>
       </c>
-      <c r="I64">
+      <c r="H64">
         <v>10</v>
       </c>
+      <c r="I64" t="s">
+        <v>136</v>
+      </c>
       <c r="J64" t="s">
-        <v>136</v>
-      </c>
-      <c r="K64" t="s">
+        <v>285</v>
+      </c>
+      <c r="K64">
+        <v>10</v>
+      </c>
+      <c r="L64" t="s">
+        <v>148</v>
+      </c>
+      <c r="M64" t="s">
+        <v>131</v>
+      </c>
+      <c r="O64" t="s">
+        <v>142</v>
+      </c>
+      <c r="P64" t="s">
+        <v>122</v>
+      </c>
+      <c r="R64" t="s">
         <v>191</v>
       </c>
-      <c r="L64" t="s">
-        <v>285</v>
-      </c>
-      <c r="M64">
-        <v>10</v>
-      </c>
-      <c r="N64" t="s">
-        <v>148</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="S64" t="s">
         <v>286</v>
-      </c>
-      <c r="P64" t="s">
-        <v>131</v>
-      </c>
-      <c r="R64" t="s">
-        <v>142</v>
-      </c>
-      <c r="S64" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S54" r:id="rId1" xr:uid="{FDA5E78A-432E-4782-A210-6CCCCF385EB6}"/>
-    <hyperlink ref="S48" r:id="rId2" location="/media/File:TaurosJungle47.jpg" xr:uid="{B46A228C-77CB-46FC-A609-A79EDA5123EC}"/>
+    <hyperlink ref="P54" r:id="rId1" xr:uid="{FDA5E78A-432E-4782-A210-6CCCCF385EB6}"/>
+    <hyperlink ref="P48" r:id="rId2" location="/media/File:TaurosJungle47.jpg" xr:uid="{B46A228C-77CB-46FC-A609-A79EDA5123EC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/data/datasets/jungle/jungle_ds.xlsx
+++ b/data/datasets/jungle/jungle_ds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Me\GitHub\KYC\data\datasets\jungle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAACF62-2869-4A2C-8ED5-2508CE5F7278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE77761-065B-4D32-834A-B8A7C0A2E9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jungle" sheetId="1" r:id="rId1"/>
@@ -20,227 +20,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="287">
-  <si>
-    <t>https://wiki.pokemoncentral.it/Clefable_(Jungle_1)#/media/File:ClefableJungle1.jpg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="239">
   <si>
     <t>Electrode</t>
   </si>
   <si>
-    <t>Lotta</t>
-  </si>
-  <si>
-    <t>https://wiki.pokemoncentral.it/Electrode_(Jungle_2)#/media/File:ElectrodeJungle2.jpg</t>
-  </si>
-  <si>
     <t>10+</t>
   </si>
   <si>
     <t>Lanciafiamme</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Flareon_(Jungle_3)#/media/File:FlareonJungle3.jpg</t>
-  </si>
-  <si>
     <t>Jolteon</t>
   </si>
   <si>
     <t>20x</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Jolteon_(Jungle_4)#/media/File:JolteonJungle4.jpg</t>
-  </si>
-  <si>
     <t>Kangaskhan</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Kangaskhan_(Jungle_5)#/media/File:KangaskhanJungle5.jpg</t>
-  </si>
-  <si>
     <t>Mr. Mime</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Mr._Mime_(Jungle_6)#/media/File:MrMimeJungle6.jpg</t>
-  </si>
-  <si>
     <t>Nidoqueen</t>
   </si>
   <si>
     <t>20+</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Nidoqueen_(Jungle_7)#/media/File:NidoqueenJungle7.jpg</t>
-  </si>
-  <si>
     <t>Pidgeot</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Pidgeot_(Jungle_8)#/media/File:PidgeotJungle8.jpg</t>
-  </si>
-  <si>
     <t>Pinsir</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Pinsir_(Jungle_9)#/media/File:PinsirJungle9.jpg</t>
-  </si>
-  <si>
     <t>Scyther</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Scyther_(Jungle_10)#/media/File:ScytherJungle10.jpg</t>
-  </si>
-  <si>
     <t>Snorlax</t>
   </si>
   <si>
     <t>Body Slam</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Snorlax_(Jungle_11)#/media/File:SnorlaxJungle11.jpg</t>
-  </si>
-  <si>
     <t>Vaporeon</t>
   </si>
   <si>
     <t>30+</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Vaporeon_(Jungle_12)#/media/File:VaporeonJungle.jpg</t>
-  </si>
-  <si>
     <t>Venomoth</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Venomoth_(Jungle_13)#/media/File:VenomothJungle13.jpg</t>
-  </si>
-  <si>
     <t>Victreebel</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Victreebel_(Jungle_14)#/media/File:VictreebelJungle14.jpg</t>
-  </si>
-  <si>
     <t>Vileplume</t>
   </si>
   <si>
     <t>40x</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Vileplume_(Jungle_15)#/media/File:VileplumeJungle15.jpg</t>
-  </si>
-  <si>
     <t>Wigglytuff</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Wigglytuff_(Jungle_16)#/media/File:WigglytuffJungle16.jpg</t>
-  </si>
-  <si>
     <t>Butterfree</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Butterfree_(Jungle_33)#/media/File:ButterfreeJungle33.jpg</t>
-  </si>
-  <si>
     <t>Dodrio</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Dodrio_(Jungle_34)#/media/File:DodrioJungle34.jpg</t>
-  </si>
-  <si>
     <t>Exeggutor</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Exeggutor_(Jungle_35)#/media/File:ExeggutorJungle35.jpg</t>
-  </si>
-  <si>
     <t>Fearow</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Fearow_(Jungle_36)#/media/File:FearowJungle36.jpg</t>
-  </si>
-  <si>
     <t>Gloom</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Gloom_(Jungle_37)#/media/File:GloomJungle37.jpg</t>
-  </si>
-  <si>
     <t>Lickitung</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Lickitung_(Jungle_38)#/media/File:LickitungJungle38.jpg</t>
-  </si>
-  <si>
     <t>Marowak</t>
   </si>
   <si>
     <t>30x</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Marowak_(Jungle_39)#/media/File:MarowakJungle39.jpg</t>
-  </si>
-  <si>
     <t>Nidorina</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Nidorina_(Jungle_40)#/media/File:NidorinaJungle40.jpg</t>
-  </si>
-  <si>
     <t>Parasect</t>
   </si>
   <si>
     <t>Spore</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Parasect_(Jungle_41)#/media/File:ParasectJungle41.jpg</t>
-  </si>
-  <si>
     <t>Persian</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Persian_(Jungle_42)#/media/File:PersianJungle42.jpg</t>
-  </si>
-  <si>
     <t>Primeape</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Primeape_(Jungle_43)#/media/File:PrimeapeJungle43.jpg</t>
-  </si>
-  <si>
     <t>Rapidash</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Rapidash_(Jungle_44)#/media/File:RapidashJungle44.jpg</t>
-  </si>
-  <si>
     <t>Rhydon</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Rhydon_(Jungle_45)#/media/File:RhydonJungle45.jpg</t>
-  </si>
-  <si>
     <t>Seaking</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Seaking_(Jungle_46)#/media/File:SeakingJungle46.jpg</t>
-  </si>
-  <si>
     <t>Tauros</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Tauros_(Jungle_47)#/media/File:TaurosJungle47.jpg</t>
-  </si>
-  <si>
     <t>Weepinbell</t>
   </si>
   <si>
-    <t>https://wiki.pokemoncentral.it/Weepinbell_(Jungle_48)#/media/File:WeepinbellJungle48.jpg</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -286,27 +187,15 @@
     <t>Costo ritirata</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>Bellsprout</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/c/cf/BellsproutJungle49.jpg</t>
-  </si>
-  <si>
     <t>Cubone</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/a/a6/CuboneJungle50.jpg</t>
-  </si>
-  <si>
     <t>Eevee</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/b/bf/EeveeJungle.jpg</t>
-  </si>
-  <si>
     <t>Exeggcute</t>
   </si>
   <si>
@@ -316,90 +205,45 @@
     <t>Parassieme</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/2/2b/ExeggcuteJungle52.jpg</t>
-  </si>
-  <si>
     <t>Goldeen</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/5/54/GoldeenJungle53.jpg</t>
-  </si>
-  <si>
     <t>Jigglypuff</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/0/07/JigglypuffJungle54.jpg</t>
-  </si>
-  <si>
     <t>Mankey</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/a/a8/MankeyJungle55.jpg</t>
-  </si>
-  <si>
     <t>Meowth</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/f/fb/MeowthJungle56.jpg</t>
-  </si>
-  <si>
     <t>Nidoran</t>
   </si>
   <si>
     <t>10x</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/9/90/NidoranJungle57.jpg</t>
-  </si>
-  <si>
     <t>Oddish</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/f/fd/OddishJungle58.jpg</t>
-  </si>
-  <si>
     <t>Paras</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/7/7c/ParasJungle59.jpg</t>
-  </si>
-  <si>
     <t>Pikachu</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/6/6f/PikachuJungle60.png</t>
-  </si>
-  <si>
     <t>Rhyhorn</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/0/06/RhyhornJungle61.jpg</t>
-  </si>
-  <si>
     <t>Spearow</t>
   </si>
   <si>
     <t xml:space="preserve">Base </t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/9/90/SpearowJungle62.jpg</t>
-  </si>
-  <si>
     <t>Venonat</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/4/4c/VenonatJungle63.jpg</t>
-  </si>
-  <si>
-    <t>Lotta - 30</t>
-  </si>
-  <si>
-    <t>2 Lotta</t>
-  </si>
-  <si>
-    <t>4 Lotta</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -475,16 +319,10 @@
     <t>2 Water 1 ANY</t>
   </si>
   <si>
-    <t>2 Lotta 1 ANY</t>
-  </si>
-  <si>
     <t>1 Grass 2 ANY</t>
   </si>
   <si>
     <t>2 Fire 1 ANY</t>
-  </si>
-  <si>
-    <t>1 Lotta 2 ANY</t>
   </si>
   <si>
     <t>1 Water 1 ANY</t>
@@ -1225,12 +1063,30 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Fighting - 30</t>
+  </si>
+  <si>
+    <t>2 Fighting</t>
+  </si>
+  <si>
+    <t>2 Fighting 1 ANY</t>
+  </si>
+  <si>
+    <t>1 Fighting 2 ANY</t>
+  </si>
+  <si>
+    <t>4 Fighting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1361,14 +1217,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1679,7 +1527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1722,13 +1570,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1750,7 +1596,6 @@
     <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="42" builtinId="8"/>
     <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2083,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2106,80 +1951,76 @@
     <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="79.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="16" max="16" width="19.875" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2188,45 +2029,42 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2235,45 +2073,42 @@
         <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="K3">
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="O3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="R3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2282,48 +2117,45 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P4" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>119</v>
       </c>
       <c r="R4" t="s">
-        <v>173</v>
-      </c>
-      <c r="S4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2332,142 +2164,133 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="O5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>119</v>
       </c>
       <c r="R5" t="s">
-        <v>173</v>
-      </c>
-      <c r="S5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N6" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>124</v>
       </c>
       <c r="R6" t="s">
-        <v>178</v>
-      </c>
-      <c r="S6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="Q7" t="s">
-        <v>181</v>
-      </c>
-      <c r="R7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2476,45 +2299,42 @@
         <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2523,183 +2343,171 @@
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="H9">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="K9">
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="R9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="H10">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="K10">
         <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="K11">
         <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="M12" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="Q12" t="s">
-        <v>196</v>
-      </c>
-      <c r="R12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2708,48 +2516,45 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" t="s">
-        <v>29</v>
+        <v>90</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>119</v>
       </c>
       <c r="R13" t="s">
-        <v>173</v>
-      </c>
-      <c r="S13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2758,42 +2563,39 @@
         <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="Q14" t="s">
-        <v>201</v>
-      </c>
-      <c r="R14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2802,45 +2604,42 @@
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
-      </c>
-      <c r="P15" t="s">
-        <v>33</v>
+        <v>91</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>152</v>
       </c>
       <c r="R15" t="s">
-        <v>206</v>
-      </c>
-      <c r="S15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2849,42 +2648,39 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O16" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="Q16" t="s">
-        <v>209</v>
-      </c>
-      <c r="R16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2893,48 +2689,45 @@
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M17" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O17" t="s">
-        <v>143</v>
-      </c>
-      <c r="P17" t="s">
-        <v>38</v>
+        <v>91</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>159</v>
       </c>
       <c r="R17" t="s">
-        <v>213</v>
-      </c>
-      <c r="S17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2943,45 +2736,42 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M18" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O18" t="s">
-        <v>143</v>
-      </c>
-      <c r="P18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
-        <v>167</v>
-      </c>
-      <c r="S18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2990,45 +2780,42 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="H19">
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="O19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="R19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3037,48 +2824,45 @@
         <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="M20" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
-        <v>142</v>
-      </c>
-      <c r="P20" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>119</v>
       </c>
       <c r="R20" t="s">
-        <v>173</v>
-      </c>
-      <c r="S20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3087,142 +2871,133 @@
         <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" t="s">
         <v>4</v>
       </c>
-      <c r="I21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>119</v>
       </c>
       <c r="R21" t="s">
-        <v>173</v>
-      </c>
-      <c r="S21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L22" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="M22" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
-      </c>
-      <c r="P22" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>124</v>
       </c>
       <c r="R22" t="s">
-        <v>178</v>
-      </c>
-      <c r="S22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O23" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="Q23" t="s">
-        <v>181</v>
-      </c>
-      <c r="R23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3231,45 +3006,42 @@
         <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="M24" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O24" t="s">
-        <v>147</v>
-      </c>
-      <c r="P24" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3278,183 +3050,171 @@
         <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="H25">
         <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="K25">
         <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
-      </c>
-      <c r="P25" t="s">
-        <v>19</v>
-      </c>
-      <c r="S25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="R25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="H26">
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="K26">
         <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O26" t="s">
-        <v>142</v>
-      </c>
-      <c r="P26" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="K27">
         <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="N27" t="s">
-        <v>123</v>
-      </c>
-      <c r="P27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="M28" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O28" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="Q28" t="s">
-        <v>196</v>
-      </c>
-      <c r="R28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3463,48 +3223,45 @@
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M29" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="O29" t="s">
-        <v>142</v>
-      </c>
-      <c r="P29" t="s">
-        <v>29</v>
+        <v>90</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>119</v>
       </c>
       <c r="R29" t="s">
-        <v>173</v>
-      </c>
-      <c r="S29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3513,42 +3270,39 @@
         <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P30" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="Q30" t="s">
-        <v>201</v>
-      </c>
-      <c r="R30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3557,45 +3311,42 @@
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="K31">
         <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O31" t="s">
-        <v>143</v>
-      </c>
-      <c r="P31" t="s">
-        <v>33</v>
+        <v>91</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>152</v>
       </c>
       <c r="R31" t="s">
-        <v>206</v>
-      </c>
-      <c r="S31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3604,42 +3355,39 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="M32" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O32" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="Q32" t="s">
-        <v>209</v>
-      </c>
-      <c r="R32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3648,48 +3396,45 @@
         <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M33" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O33" t="s">
-        <v>143</v>
-      </c>
-      <c r="P33" t="s">
-        <v>38</v>
+        <v>91</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>159</v>
       </c>
       <c r="R33" t="s">
-        <v>213</v>
-      </c>
-      <c r="S33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3698,48 +3443,45 @@
         <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="H34">
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="K34">
         <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="M34" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="N34" t="s">
-        <v>123</v>
-      </c>
-      <c r="P34" t="s">
-        <v>40</v>
+        <v>234</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>163</v>
       </c>
       <c r="R34" t="s">
-        <v>217</v>
-      </c>
-      <c r="S34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3748,42 +3490,39 @@
         <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M35" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="Q35" t="s">
-        <v>221</v>
-      </c>
-      <c r="R35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3792,45 +3531,42 @@
         <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L36" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O36" t="s">
-        <v>147</v>
-      </c>
-      <c r="P36" t="s">
-        <v>44</v>
+        <v>95</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>172</v>
       </c>
       <c r="R36" t="s">
-        <v>226</v>
-      </c>
-      <c r="S36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3839,45 +3575,42 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="H37">
         <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="K37">
         <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="M37" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="N37" t="s">
-        <v>123</v>
-      </c>
-      <c r="P37" t="s">
-        <v>46</v>
-      </c>
-      <c r="R37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3886,95 +3619,89 @@
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="I38" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="K38">
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M38" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O38" t="s">
-        <v>142</v>
-      </c>
-      <c r="P38" t="s">
-        <v>48</v>
+        <v>90</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>178</v>
       </c>
       <c r="R38" t="s">
-        <v>232</v>
-      </c>
-      <c r="S38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M39" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N39" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O39" t="s">
-        <v>147</v>
-      </c>
-      <c r="P39" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>137</v>
       </c>
       <c r="R39" t="s">
-        <v>191</v>
-      </c>
-      <c r="S39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3983,48 +3710,45 @@
         <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="M40" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="N40" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="O40" t="s">
-        <v>142</v>
-      </c>
-      <c r="P40" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>186</v>
       </c>
       <c r="R40" t="s">
-        <v>240</v>
-      </c>
-      <c r="S40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4033,45 +3757,42 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O41" t="s">
-        <v>142</v>
-      </c>
-      <c r="P41" t="s">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>183</v>
       </c>
       <c r="R41" t="s">
-        <v>237</v>
-      </c>
-      <c r="S41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4080,42 +3801,39 @@
         <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="K42">
         <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M42" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O42" t="s">
-        <v>142</v>
-      </c>
-      <c r="P42" t="s">
-        <v>58</v>
-      </c>
-      <c r="R42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4124,45 +3842,42 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="H43">
         <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="K43">
         <v>30</v>
       </c>
       <c r="L43" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M43" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N43" t="s">
-        <v>139</v>
-      </c>
-      <c r="P43" t="s">
-        <v>60</v>
-      </c>
-      <c r="S43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="R43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4171,48 +3886,45 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="J44" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="K44">
         <v>50</v>
       </c>
       <c r="L44" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="M44" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O44" t="s">
-        <v>142</v>
-      </c>
-      <c r="P44" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>193</v>
       </c>
       <c r="R44" t="s">
-        <v>247</v>
-      </c>
-      <c r="S44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4221,45 +3933,42 @@
         <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="K45">
         <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="M45" t="s">
-        <v>132</v>
-      </c>
-      <c r="P45" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>197</v>
       </c>
       <c r="R45" t="s">
-        <v>251</v>
-      </c>
-      <c r="S45" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4268,48 +3977,45 @@
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="H46">
         <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="J46" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="K46">
         <v>50</v>
       </c>
       <c r="L46" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="M46" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="N46" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="O46" t="s">
-        <v>147</v>
-      </c>
-      <c r="P46" t="s">
-        <v>66</v>
-      </c>
-      <c r="S46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="R46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4318,95 +4024,89 @@
         <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="K47">
         <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="M47" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="O47" t="s">
-        <v>142</v>
-      </c>
-      <c r="P47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E48">
         <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="K48" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L48" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N48" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O48" t="s">
-        <v>143</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>197</v>
       </c>
       <c r="R48" t="s">
-        <v>251</v>
-      </c>
-      <c r="S48" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4415,699 +4115,647 @@
         <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="H49">
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="K49">
         <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M49" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P49" t="s">
-        <v>72</v>
-      </c>
-      <c r="R49" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="H50">
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="L50" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="M50" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O50" t="s">
-        <v>142</v>
-      </c>
-      <c r="P50" t="s">
-        <v>90</v>
-      </c>
-      <c r="S50" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="R50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="I51" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="M51" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="N51" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="O51" t="s">
-        <v>142</v>
-      </c>
-      <c r="P51" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>211</v>
       </c>
       <c r="R51" t="s">
-        <v>265</v>
-      </c>
-      <c r="S51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="I52" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M52" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N52" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O52" t="s">
-        <v>142</v>
-      </c>
-      <c r="P52" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>214</v>
       </c>
       <c r="R52" t="s">
-        <v>268</v>
-      </c>
-      <c r="S52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="K53">
         <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M53" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O53" t="s">
-        <v>142</v>
-      </c>
-      <c r="P53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>127</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="K55">
         <v>20</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M55" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N55" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O55" t="s">
-        <v>142</v>
-      </c>
-      <c r="P55" t="s">
-        <v>102</v>
-      </c>
-      <c r="R55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="H56">
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="P56" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
         <v>105</v>
       </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
-        <v>159</v>
-      </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="H57">
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M57" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="N57" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="O57" t="s">
-        <v>142</v>
-      </c>
-      <c r="P57" t="s">
-        <v>106</v>
-      </c>
-      <c r="R57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="H58" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="I58" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J58" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="L58" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M58" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O58" t="s">
-        <v>142</v>
-      </c>
-      <c r="P58" t="s">
-        <v>109</v>
+        <v>90</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>220</v>
       </c>
       <c r="R58" t="s">
-        <v>274</v>
-      </c>
-      <c r="S58" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M59" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O59" t="s">
-        <v>142</v>
-      </c>
-      <c r="P59" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>137</v>
       </c>
       <c r="R59" t="s">
-        <v>191</v>
-      </c>
-      <c r="S59" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="H60">
         <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="L60" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="M60" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O60" t="s">
-        <v>142</v>
-      </c>
-      <c r="P60" t="s">
-        <v>113</v>
-      </c>
-      <c r="S60" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="R60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="H61">
         <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="M61" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="O61" t="s">
-        <v>142</v>
-      </c>
-      <c r="P61" t="s">
-        <v>115</v>
-      </c>
-      <c r="R61" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="I62" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="K62">
         <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="M62" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="N62" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="O62" t="s">
-        <v>147</v>
-      </c>
-      <c r="P62" t="s">
-        <v>117</v>
-      </c>
-      <c r="R62" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E63">
         <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="H63">
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M63" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="N63" t="s">
-        <v>129</v>
-      </c>
-      <c r="P63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="H64">
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J64" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="K64">
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="M64" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O64" t="s">
-        <v>142</v>
-      </c>
-      <c r="P64" t="s">
-        <v>122</v>
+        <v>90</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>137</v>
       </c>
       <c r="R64" t="s">
-        <v>191</v>
-      </c>
-      <c r="S64" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P54" r:id="rId1" xr:uid="{FDA5E78A-432E-4782-A210-6CCCCF385EB6}"/>
-    <hyperlink ref="P48" r:id="rId2" location="/media/File:TaurosJungle47.jpg" xr:uid="{B46A228C-77CB-46FC-A609-A79EDA5123EC}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>